--- a/public/data/person.xlsx
+++ b/public/data/person.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="activity" sheetId="16" r:id="rId1"/>
@@ -37,7 +37,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="person" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/dcmartin/GIT/age-at-home/public/data/person.csv" tab="0" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/dcmartin/GIT/age-at-home/public/data/person.csv" tab="0" comma="1">
       <textFields count="88">
         <textField/>
         <textField/>
@@ -354,7 +354,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4538,12 +4537,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="2137967104"/>
-        <c:axId val="-2062444768"/>
-        <c:axId val="-2017581536"/>
+        <c:axId val="-2100627232"/>
+        <c:axId val="-2104604208"/>
+        <c:axId val="-2100440960"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="2137967104"/>
+        <c:axId val="-2100627232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4575,7 +4574,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2062444768"/>
+        <c:crossAx val="-2104604208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4583,7 +4582,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2062444768"/>
+        <c:axId val="-2104604208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4603,6 +4602,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4623,12 +4623,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137967104"/>
+        <c:crossAx val="-2100627232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2017581536"/>
+        <c:axId val="-2100440960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4660,7 +4660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2062444768"/>
+        <c:crossAx val="-2104604208"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -4692,72 +4692,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="4"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="5"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="6"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4828,7 +4762,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9012,12 +8945,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="-2065458720"/>
-        <c:axId val="-2056529200"/>
-        <c:axId val="-2056699200"/>
+        <c:axId val="-2051042256"/>
+        <c:axId val="-2046888016"/>
+        <c:axId val="-2051319184"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="-2065458720"/>
+        <c:axId val="-2051042256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9049,7 +8982,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2056529200"/>
+        <c:crossAx val="-2046888016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9057,7 +8990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2056529200"/>
+        <c:axId val="-2046888016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9098,12 +9031,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065458720"/>
+        <c:crossAx val="-2051042256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2056699200"/>
+        <c:axId val="-2051319184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9135,7 +9068,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2056529200"/>
+        <c:crossAx val="-2046888016"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -9167,46 +9100,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="4"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9277,7 +9170,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13461,12 +13353,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="-2062933808"/>
-        <c:axId val="-2070398400"/>
-        <c:axId val="-2101256176"/>
+        <c:axId val="-2051908992"/>
+        <c:axId val="-2015525104"/>
+        <c:axId val="-2047693280"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="-2062933808"/>
+        <c:axId val="-2051908992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13498,7 +13390,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2070398400"/>
+        <c:crossAx val="-2015525104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13506,7 +13398,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2070398400"/>
+        <c:axId val="-2015525104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13546,12 +13438,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2062933808"/>
+        <c:crossAx val="-2051908992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2101256176"/>
+        <c:axId val="-2047693280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13583,7 +13475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2070398400"/>
+        <c:crossAx val="-2015525104"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -13615,111 +13507,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="4"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="5"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="6"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="7"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="8"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="9"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17974,12 +17761,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="2130957856"/>
-        <c:axId val="-2047262208"/>
-        <c:axId val="-2064738512"/>
+        <c:axId val="2132780112"/>
+        <c:axId val="-2046931024"/>
+        <c:axId val="-2047628336"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="2130957856"/>
+        <c:axId val="2132780112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18011,7 +17798,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2047262208"/>
+        <c:crossAx val="-2046931024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18019,7 +17806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2047262208"/>
+        <c:axId val="-2046931024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18059,12 +17846,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130957856"/>
+        <c:crossAx val="2132780112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2064738512"/>
+        <c:axId val="-2047628336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18096,7 +17883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2047262208"/>
+        <c:crossAx val="-2046931024"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -18221,6 +18008,3976 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NORMAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>analysis!$B$1:$CJ$1</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm\ AM/PM</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.135416666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.145833333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.197916666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.229166666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.260416666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.270833333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.302083333333333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.322916666666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.354166666666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.364583333333333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.385416666666667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.395833333333333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.427083333333333</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.447916666666667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.489583333333333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.510416666666667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.541666666666667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.552083333333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.572916666666667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.614583333333333</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.635416666666667</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.645833333333333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.677083333333333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.697916666666667</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.708333333333333</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.739583333333333</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.760416666666667</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.770833333333333</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.802083333333333</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.822916666666667</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.854166666666667</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.864583333333333</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.885416666666667</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.895833333333333</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.927083333333333</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.947916666666667</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.958333333333333</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.979166666666667</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.989583333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analysis!$B$30:$CJ$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.123105625617661</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.11977264179857</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.0464727188699</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.09867359442359</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.7988763690296</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.61535679569001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.356969484781083</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25.83503220220344</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.139413118504446</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.98121471129282</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.53603943117063</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.60784009633608</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.70622066527234</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>65.2478266985872</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.046514401738484</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.393862252597854</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.370782520170976</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.433109114705036</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.81501610008696</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.244281622256886</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.123996556903256</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.831146819219179</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21.63330765278395</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16.93622022635379</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.19761837236307</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.633122354417532</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.04689006608513</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12.22528709798257</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>25.65692455805602</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.149603149604724</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.027729719194863</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10.93414631123781</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19.93043457183566</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.04226424709296</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.69543637477362</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.71353320232794</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12.95425707045069</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10.13927801560279</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.841139529536868</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>55.18521798474345</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.422884720817392</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>18.39646255884455</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.97996655509042</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14.0905011345311</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.542205718929011</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.804757862395016</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>30.36139760529446</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.405351177211819</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>10.04689006608513</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>22.2710574513201</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10.19803902718557</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.916277250063508</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.144660377352201</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.529410067056808</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>28.4253408071038</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2071651760"/>
+        <c:axId val="-2067644048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2071651760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2067644048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2067644048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2071651760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UNDER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>analysis!$B$1:$CJ$1</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm\ AM/PM</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.135416666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.145833333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.197916666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.229166666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.260416666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.270833333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.302083333333333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.322916666666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.354166666666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.364583333333333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.385416666666667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.395833333333333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.427083333333333</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.447916666666667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.489583333333333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.510416666666667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.541666666666667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.552083333333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.572916666666667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.614583333333333</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.635416666666667</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.645833333333333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.677083333333333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.697916666666667</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.708333333333333</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.739583333333333</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.760416666666667</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.770833333333333</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.802083333333333</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.822916666666667</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.854166666666667</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.864583333333333</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.885416666666667</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.895833333333333</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.927083333333333</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.947916666666667</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.958333333333333</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.979166666666667</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.989583333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analysis!$B$21:$CJ$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.596543469170523</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.563143631870345</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.642472631782291</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.587158961629959</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.632993161855452</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.654232899711067</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.543055355464712</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.811505837158206</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.556623564988312</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2063597440"/>
+        <c:axId val="-2049579104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2063597440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm\ AM/PM" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2049579104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2049579104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2063597440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OVER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>analysis!$B$1:$CJ$1</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm\ AM/PM</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.135416666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.145833333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.197916666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.229166666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.260416666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.270833333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.302083333333333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.322916666666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.354166666666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.364583333333333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.385416666666667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.395833333333333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.427083333333333</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.447916666666667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.489583333333333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.510416666666667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.541666666666667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.552083333333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.572916666666667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.614583333333333</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.635416666666667</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.645833333333333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.677083333333333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.697916666666667</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.708333333333333</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.739583333333333</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.760416666666667</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.770833333333333</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.802083333333333</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.822916666666667</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.854166666666667</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.864583333333333</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.885416666666667</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.895833333333333</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.927083333333333</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.947916666666667</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.958333333333333</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.979166666666667</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.989583333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analysis!$B$12:$CJ$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.637115468995248</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.705202504821885</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.049794491787783</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2248595461287</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.334055597876919</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.78955973313593</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.231565851147483</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.78169392696116</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.791093316155128</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.36815039649454</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.041241452319315</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.805461138457602</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.568140404264038</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.881544522515954</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.191770148299936</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.907552353373622</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.817953664788773</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.664100588675687</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.331988859967121</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.064418640761685</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.692228224453299</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.664100588675687</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.762904424261449</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.101434186698608</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.811505837158206</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.426044531419248</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.263846284534354</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.905001905002857</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.78547781685541</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.21604132651879</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.610218317590205</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.623624219580172</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.321035412742638</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.139618780639762</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.690993630815758</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6266831294477</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.61832634841421</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.857290180311124</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.814074250028202</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.772585164540225</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.968229026671608</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.109835692563847</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.127513992779762</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.870828693386971</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.075498086651083</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.053290134455174</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.801996396010812</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.237230275755962</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.040432879717847</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.393172105652397</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2020177920"/>
+        <c:axId val="-2019869536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2020177920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2019869536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2019869536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2020177920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
@@ -18258,7 +22015,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="153" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="153" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18350,7 +22107,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674183" cy="6291895"/>
+    <xdr:ext cx="8676913" cy="6281812"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -18370,6 +22127,101 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18642,8 +22494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="BF39" sqref="BF39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29483,6 +33335,7 @@
     <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/public/data/person.xlsx
+++ b/public/data/person.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="activity" sheetId="16" r:id="rId1"/>
     <sheet name="&gt;active" sheetId="13" r:id="rId2"/>
     <sheet name="&lt;active" sheetId="14" r:id="rId3"/>
-    <sheet name="normal" sheetId="15" r:id="rId4"/>
+    <sheet name="normal" sheetId="17" r:id="rId4"/>
     <sheet name="analysis" sheetId="12" r:id="rId5"/>
     <sheet name="person" sheetId="11" r:id="rId6"/>
   </sheets>
@@ -354,6 +354,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -404,8 +405,10 @@
     </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:surface3DChart>
-        <c:wireframe val="0"/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -428,6 +431,223 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -991,6 +1211,7 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -1554,6 +1775,7 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -2117,6 +2339,7 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -2680,6 +2903,7 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -3243,6 +3467,7 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -3808,6 +4033,7 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -4349,205 +4575,28 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:bandFmts>
-          <c:bandFmt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="11"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="13"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="14"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-        </c:bandFmts>
-        <c:axId val="-2100627232"/>
-        <c:axId val="-2104604208"/>
-        <c:axId val="-2100440960"/>
-      </c:surface3DChart>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="-2061490592"/>
+        <c:axId val="-2071289888"/>
+        <c:axId val="-2062442608"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2100627232"/>
+        <c:axId val="-2061490592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm\ AM/PM" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4574,7 +4623,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2104604208"/>
+        <c:crossAx val="-2071289888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4582,7 +4631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2104604208"/>
+        <c:axId val="-2071289888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4623,12 +4672,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2100627232"/>
+        <c:crossAx val="-2061490592"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2100440960"/>
+        <c:axId val="-2062442608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4660,38 +4709,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2104604208"/>
+        <c:crossAx val="-2071289888"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4762,6 +4786,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4812,8 +4837,10 @@
     </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:surface3DChart>
-        <c:wireframe val="0"/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4836,6 +4863,223 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -5399,6 +5643,7 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -5962,6 +6207,7 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -6525,6 +6771,7 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -7088,6 +7335,7 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -7651,6 +7899,7 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -8216,6 +8465,7 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -8757,205 +9007,28 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:bandFmts>
-          <c:bandFmt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="11"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="13"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="14"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-        </c:bandFmts>
-        <c:axId val="-2051042256"/>
-        <c:axId val="-2046888016"/>
-        <c:axId val="-2051319184"/>
-      </c:surface3DChart>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="-2069790880"/>
+        <c:axId val="-2057839392"/>
+        <c:axId val="-2101401728"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2051042256"/>
+        <c:axId val="-2069790880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm\ AM/PM" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8982,7 +9055,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2046888016"/>
+        <c:crossAx val="-2057839392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8990,7 +9063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2046888016"/>
+        <c:axId val="-2057839392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9031,12 +9104,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2051042256"/>
+        <c:crossAx val="-2069790880"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2051319184"/>
+        <c:axId val="-2101401728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9068,38 +9141,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2046888016"/>
+        <c:crossAx val="-2057839392"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9170,6 +9218,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9220,8 +9269,10 @@
     </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:surface3DChart>
-        <c:wireframe val="0"/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -9244,6 +9295,223 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -9807,6 +10075,7 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -10370,6 +10639,7 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -10933,6 +11203,7 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -11496,6 +11767,7 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -12059,6 +12331,7 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -12624,6 +12897,7 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -13165,205 +13439,28 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:bandFmts>
-          <c:bandFmt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="11"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="13"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="14"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-        </c:bandFmts>
-        <c:axId val="-2051908992"/>
-        <c:axId val="-2015525104"/>
-        <c:axId val="-2047693280"/>
-      </c:surface3DChart>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="-2097525760"/>
+        <c:axId val="-2102061392"/>
+        <c:axId val="-2062236080"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2051908992"/>
+        <c:axId val="-2097525760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm\ AM/PM" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13390,7 +13487,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2015525104"/>
+        <c:crossAx val="-2102061392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13398,7 +13495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2015525104"/>
+        <c:axId val="-2102061392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13438,12 +13535,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2051908992"/>
+        <c:crossAx val="-2097525760"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2047693280"/>
+        <c:axId val="-2062236080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13475,38 +13572,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2015525104"/>
+        <c:crossAx val="-2102061392"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13564,11 +13636,21 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" vert="horz"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Helvetica Neue Light" charset="0"/>
+                <a:ea typeface="Helvetica Neue Light" charset="0"/>
+                <a:cs typeface="Helvetica Neue Light" charset="0"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -13586,6 +13668,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue Light" charset="0"/>
+              <a:ea typeface="Helvetica Neue Light" charset="0"/>
+              <a:cs typeface="Helvetica Neue Light" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -13628,8 +13730,10 @@
     </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:surface3DChart>
-        <c:wireframe val="0"/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -13648,10 +13752,13 @@
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -14211,10 +14318,13 @@
             <a:solidFill>
               <a:schemeClr val="accent2"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -14774,10 +14884,13 @@
             <a:solidFill>
               <a:schemeClr val="accent3"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -15337,10 +15450,13 @@
             <a:solidFill>
               <a:schemeClr val="accent4"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -15900,10 +16016,13 @@
             <a:solidFill>
               <a:schemeClr val="accent5"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -16463,10 +16582,13 @@
             <a:solidFill>
               <a:schemeClr val="accent6"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -17028,10 +17150,13 @@
                 <a:lumMod val="60000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>analysis!$B$1:$CJ$1</c:f>
@@ -17556,1058 +17681,6 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:bandFmts>
-          <c:bandFmt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="11"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="13"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="14"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-        </c:bandFmts>
-        <c:axId val="2132780112"/>
-        <c:axId val="-2046931024"/>
-        <c:axId val="-2047628336"/>
-      </c:surface3DChart>
-      <c:catAx>
-        <c:axId val="2132780112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2046931024"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2046931024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2132780112"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:serAx>
-        <c:axId val="-2047628336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2046931024"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="4"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="5"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" vert="horz"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr b="0" i="0">
-          <a:latin typeface="Helvetica Neue Light" charset="0"/>
-          <a:ea typeface="Helvetica Neue Light" charset="0"/>
-          <a:cs typeface="Helvetica Neue Light" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$A$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NORMAL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>analysis!$B$1:$CJ$1</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm\ AM/PM</c:formatCode>
-                <c:ptCount val="87"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0208333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.135416666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.145833333333333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.197916666666667</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.21875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.229166666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.260416666666667</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.270833333333333</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.28125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.291666666666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.302083333333333</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.322916666666667</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.34375</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.354166666666667</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.364583333333333</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.385416666666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.395833333333333</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.40625</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.427083333333333</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.447916666666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.458333333333333</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.46875</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.489583333333333</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.510416666666667</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.53125</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.541666666666667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.552083333333333</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.572916666666667</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.59375</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.614583333333333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.635416666666667</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.645833333333333</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.65625</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.677083333333333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.6875</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.697916666666667</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.708333333333333</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.71875</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.739583333333333</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.760416666666667</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.770833333333333</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.78125</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.791666666666667</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.802083333333333</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.8125</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.822916666666667</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.84375</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.854166666666667</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.864583333333333</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.885416666666667</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.895833333333333</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.90625</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.916666666666667</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.927083333333333</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.9375</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.947916666666667</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.958333333333333</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.96875</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.979166666666667</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.989583333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$B$30:$CJ$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.123105625617661</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.11977264179857</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.0464727188699</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11.09867359442359</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>17.7988763690296</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>19.61535679569001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.356969484781083</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>25.83503220220344</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.139413118504446</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.98121471129282</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30.53603943117063</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31.60784009633608</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>26.70622066527234</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>65.2478266985872</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.046514401738484</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.393862252597854</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8.370782520170976</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7.433109114705036</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.81501610008696</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.244281622256886</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.123996556903256</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.831146819219179</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>21.63330765278395</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>16.93622022635379</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.19761837236307</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.633122354417532</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>10.04689006608513</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>12.22528709798257</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>25.65692455805602</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.149603149604724</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8.027729719194863</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>10.93414631123781</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>19.93043457183566</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>14.04226424709296</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>3.69543637477362</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9.71353320232794</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>12.95425707045069</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>10.13927801560279</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>4.841139529536868</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>55.18521798474345</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2.422884720817392</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>18.39646255884455</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>5.97996655509042</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>14.0905011345311</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2.542205718929011</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2.804757862395016</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>30.36139760529446</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.405351177211819</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>10.04689006608513</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>22.2710574513201</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10.19803902718557</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>8.916277250063508</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>3.144660377352201</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>4.529410067056808</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>28.4253408071038</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>0.0</c:v>
@@ -18634,12 +17707,13 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-2071651760"/>
-        <c:axId val="-2067644048"/>
-      </c:barChart>
+        <c:shape val="box"/>
+        <c:axId val="-2050745904"/>
+        <c:axId val="-2050189216"/>
+        <c:axId val="-2050003328"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2071651760"/>
+        <c:axId val="-2050745904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18673,15 +17747,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Helvetica Neue Light" charset="0"/>
+                <a:ea typeface="Helvetica Neue Light" charset="0"/>
+                <a:cs typeface="Helvetica Neue Light" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067644048"/>
+        <c:crossAx val="-2050189216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18689,7 +17763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2067644048"/>
+        <c:axId val="-2050189216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18709,6 +17783,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -18731,18 +17806,58 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Helvetica Neue Light" charset="0"/>
+                <a:ea typeface="Helvetica Neue Light" charset="0"/>
+                <a:cs typeface="Helvetica Neue Light" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071651760"/>
+        <c:crossAx val="-2050745904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:serAx>
+        <c:axId val="-2050003328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Helvetica Neue Light" charset="0"/>
+                <a:ea typeface="Helvetica Neue Light" charset="0"/>
+                <a:cs typeface="Helvetica Neue Light" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2050189216"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -18751,6 +17866,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue Light" charset="0"/>
+              <a:ea typeface="Helvetica Neue Light" charset="0"/>
+              <a:cs typeface="Helvetica Neue Light" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -18775,1661 +17922,19 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="0" i="0">
+          <a:latin typeface="Helvetica Neue Light" charset="0"/>
+          <a:ea typeface="Helvetica Neue Light" charset="0"/>
+          <a:cs typeface="Helvetica Neue Light" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>UNDER</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>analysis!$B$1:$CJ$1</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm\ AM/PM</c:formatCode>
-                <c:ptCount val="87"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0208333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.135416666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.145833333333333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.197916666666667</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.21875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.229166666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.260416666666667</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.270833333333333</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.28125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.291666666666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.302083333333333</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.322916666666667</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.34375</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.354166666666667</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.364583333333333</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.385416666666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.395833333333333</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.40625</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.427083333333333</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.447916666666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.458333333333333</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.46875</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.489583333333333</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.510416666666667</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.53125</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.541666666666667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.552083333333333</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.572916666666667</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.59375</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.614583333333333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.635416666666667</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.645833333333333</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.65625</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.677083333333333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.6875</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.697916666666667</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.708333333333333</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.71875</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.739583333333333</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.760416666666667</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.770833333333333</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.78125</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.791666666666667</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.802083333333333</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.8125</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.822916666666667</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.84375</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.854166666666667</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.864583333333333</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.885416666666667</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.895833333333333</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.90625</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.916666666666667</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.927083333333333</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.9375</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.947916666666667</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.958333333333333</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.96875</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.979166666666667</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.989583333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$B$21:$CJ$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.596543469170523</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.563143631870345</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.642472631782291</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.587158961629959</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.632993161855452</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.654232899711067</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.543055355464712</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.811505837158206</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.556623564988312</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-2063597440"/>
-        <c:axId val="-2049579104"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2063597440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="h:mm\ AM/PM" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2049579104"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2049579104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2063597440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OVER</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>analysis!$B$1:$CJ$1</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm\ AM/PM</c:formatCode>
-                <c:ptCount val="87"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0208333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.135416666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.145833333333333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.197916666666667</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.21875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.229166666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.260416666666667</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.270833333333333</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.28125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.291666666666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.302083333333333</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.322916666666667</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.34375</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.354166666666667</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.364583333333333</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.385416666666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.395833333333333</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.40625</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.427083333333333</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.447916666666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.458333333333333</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.46875</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.489583333333333</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.510416666666667</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.53125</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.541666666666667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.552083333333333</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.572916666666667</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.59375</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.614583333333333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.635416666666667</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.645833333333333</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.65625</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.677083333333333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.6875</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.697916666666667</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.708333333333333</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.71875</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.739583333333333</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.760416666666667</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.770833333333333</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.78125</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.791666666666667</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.802083333333333</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.8125</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.822916666666667</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.84375</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.854166666666667</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.864583333333333</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.885416666666667</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.895833333333333</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.90625</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.916666666666667</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.927083333333333</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.9375</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.947916666666667</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.958333333333333</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.96875</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.979166666666667</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.989583333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$B$12:$CJ$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.637115468995248</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.705202504821885</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.049794491787783</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.2248595461287</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.334055597876919</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.78955973313593</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.231565851147483</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.78169392696116</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.791093316155128</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.36815039649454</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.041241452319315</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.805461138457602</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.568140404264038</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.881544522515954</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.191770148299936</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.907552353373622</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.817953664788773</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.664100588675687</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.331988859967121</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.064418640761685</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.692228224453299</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.664100588675687</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.762904424261449</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.101434186698608</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.811505837158206</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.426044531419248</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.263846284534354</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.905001905002857</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.78547781685541</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.21604132651879</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.610218317590205</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.623624219580172</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2.321035412742638</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.139618780639762</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.690993630815758</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6266831294477</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.61832634841421</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.857290180311124</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.814074250028202</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.772585164540225</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.968229026671608</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2.109835692563847</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.127513992779762</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.870828693386971</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2.075498086651083</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3.053290134455174</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.801996396010812</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.237230275755962</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.040432879717847</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.393172105652397</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-2020177920"/>
-        <c:axId val="-2019869536"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2020177920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2019869536"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2019869536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2020177920"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -20972,1017 +18477,11 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="153" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="153" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22015,7 +18514,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="153" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="152" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22107,7 +18606,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8676913" cy="6281812"/>
+    <xdr:ext cx="8674014" cy="6280884"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -22127,101 +18626,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -22494,8 +18898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="BF39" sqref="BF39"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33335,7 +29739,6 @@
     <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/public/data/person.xlsx
+++ b/public/data/person.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="activity" sheetId="16" r:id="rId1"/>
-    <sheet name="&gt;active" sheetId="13" r:id="rId2"/>
-    <sheet name="&lt;active" sheetId="14" r:id="rId3"/>
-    <sheet name="normal" sheetId="17" r:id="rId4"/>
+    <sheet name="normal" sheetId="17" r:id="rId2"/>
+    <sheet name="&gt;active" sheetId="13" r:id="rId3"/>
+    <sheet name="&lt;active" sheetId="14" r:id="rId4"/>
     <sheet name="analysis" sheetId="12" r:id="rId5"/>
     <sheet name="person" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="person" localSheetId="5">person!$A$1:$CJ$8</definedName>
+    <definedName name="person_1" localSheetId="5">person!$A$1:$CJ$8</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -36,8 +36,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="person" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="/Users/dcmartin/GIT/age-at-home/public/data/person.csv" tab="0" comma="1">
+  <connection id="1" name="person" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" sourceFile="/Users/dcmartin/GIT/age-at-home/public/data/person.csv" tab="0" comma="1">
       <textFields count="88">
         <textField/>
         <textField/>
@@ -4455,7 +4455,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>9.0</c:v>
@@ -4464,22 +4464,22 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>15.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>11.0</c:v>
@@ -4585,12 +4585,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2061490592"/>
-        <c:axId val="-2071289888"/>
-        <c:axId val="-2062442608"/>
+        <c:axId val="-2108442992"/>
+        <c:axId val="-2108514752"/>
+        <c:axId val="-2108511360"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2061490592"/>
+        <c:axId val="-2108442992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4623,7 +4623,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071289888"/>
+        <c:crossAx val="-2108514752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4631,7 +4631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071289888"/>
+        <c:axId val="-2108514752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4672,12 +4672,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2061490592"/>
+        <c:crossAx val="-2108442992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2062442608"/>
+        <c:axId val="-2108511360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4709,7 +4709,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071289888"/>
+        <c:crossAx val="-2108514752"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -4757,6 +4757,4321 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Helvetica Neue Light" charset="0"/>
+                <a:ea typeface="Helvetica Neue Light" charset="0"/>
+                <a:cs typeface="Helvetica Neue Light" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Normal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue Light" charset="0"/>
+              <a:ea typeface="Helvetica Neue Light" charset="0"/>
+              <a:cs typeface="Helvetica Neue Light" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sunday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>analysis!$B$1:$CJ$1</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm\ AM/PM</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.135416666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.145833333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.197916666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.229166666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.260416666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.270833333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.302083333333333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.322916666666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.354166666666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.364583333333333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.385416666666667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.395833333333333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.427083333333333</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.447916666666667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.489583333333333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.510416666666667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.541666666666667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.552083333333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.572916666666667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.614583333333333</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.635416666666667</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.645833333333333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.677083333333333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.697916666666667</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.708333333333333</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.739583333333333</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.760416666666667</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.770833333333333</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.802083333333333</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.822916666666667</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.854166666666667</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.864583333333333</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.885416666666667</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.895833333333333</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.927083333333333</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.947916666666667</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.958333333333333</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.979166666666667</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.989583333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analysis!$B$31:$CJ$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.472135954999578</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.061552812808831</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.870540018881465</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.079215610874227</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.839651043435076</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.35489375751557</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.515405728048024</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.311655251113367</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.39165214862028</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.244281622256886</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.015177865165963</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.023530221225524</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.399076199243622</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.766365445449639</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26.57066051117277</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.542205718929011</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.368563821901291</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.916277250063508</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.144660377352201</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>analysis!$B$1:$CJ$1</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm\ AM/PM</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.135416666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.145833333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.197916666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.229166666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.260416666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.270833333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.302083333333333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.322916666666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.354166666666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.364583333333333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.385416666666667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.395833333333333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.427083333333333</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.447916666666667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.489583333333333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.510416666666667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.541666666666667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.552083333333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.572916666666667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.614583333333333</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.635416666666667</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.645833333333333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.677083333333333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.697916666666667</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.708333333333333</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.739583333333333</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.760416666666667</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.770833333333333</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.802083333333333</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.822916666666667</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.854166666666667</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.864583333333333</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.885416666666667</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.895833333333333</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.927083333333333</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.947916666666667</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.958333333333333</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.979166666666667</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.989583333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analysis!$B$32:$CJ$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.061552812808831</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.113941815660969</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.756574397610111</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.568466729604885</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.59738536958075</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.98121471129282</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.449489742783178</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.847679857416328</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.363574011458169</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.397302851773251</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.176350047203664</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.015177865165963</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.082207001484488</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.63330765278388</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.023530221225524</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.23606797749979</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.979130371550696</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.720294101747088</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26.57066051117277</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.422884720817392</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13.59738536958075</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.127513992779762</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.33238075793812</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>14.2126704035519</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.01426536422407</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tuesday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>analysis!$B$1:$CJ$1</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm\ AM/PM</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.135416666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.145833333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.197916666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.229166666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.260416666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.270833333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.302083333333333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.322916666666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.354166666666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.364583333333333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.385416666666667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.395833333333333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.427083333333333</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.447916666666667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.489583333333333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.510416666666667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.541666666666667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.552083333333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.572916666666667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.614583333333333</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.635416666666667</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.645833333333333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.677083333333333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.697916666666667</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.708333333333333</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.739583333333333</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.760416666666667</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.770833333333333</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.802083333333333</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.822916666666667</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.854166666666667</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.864583333333333</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.885416666666667</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.895833333333333</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.927083333333333</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.947916666666667</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.958333333333333</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.979166666666667</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.989583333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analysis!$B$33:$CJ$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.059886320899284</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.966479394838265</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.079215610874227</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22.89104628451913</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.938058451861286</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.120912514978817</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.209072203437452</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.633122354417532</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.015177865165963</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.738983819167982</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.472994637951899</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.074774084087228</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.641968962724581</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.870540018881464</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10.19803902718557</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.830951894845298</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>12.08304597359458</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.264705033528404</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>14.2126704035519</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.605551275463988</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wednesday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>analysis!$B$1:$CJ$1</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm\ AM/PM</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.135416666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.145833333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.197916666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.229166666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.260416666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.270833333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.302083333333333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.322916666666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.354166666666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.364583333333333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.385416666666667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.395833333333333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.427083333333333</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.447916666666667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.489583333333333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.510416666666667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.541666666666667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.552083333333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.572916666666667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.614583333333333</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.635416666666667</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.645833333333333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.677083333333333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.697916666666667</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.708333333333333</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.739583333333333</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.760416666666667</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.770833333333333</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.802083333333333</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.822916666666667</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.854166666666667</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.864583333333333</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.885416666666667</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.895833333333333</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.927083333333333</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.947916666666667</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.958333333333333</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.979166666666667</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.989583333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analysis!$B$34:$CJ$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.472135954999578</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.113941815660969</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.416198487095667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.176350047203659</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.09243436828806</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.815174380753201</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.082207001484488</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.585429257288709</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.003084041924438</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.28991475552747</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.831146819219179</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.015177865165963</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.472994637951899</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.399538594631898</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.98998327754521</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>22.2710574513201</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thursday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>analysis!$B$1:$CJ$1</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm\ AM/PM</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.135416666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.145833333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.197916666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.229166666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.260416666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.270833333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.302083333333333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.322916666666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.354166666666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.364583333333333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.385416666666667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.395833333333333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.427083333333333</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.447916666666667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.489583333333333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.510416666666667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.541666666666667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.552083333333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.572916666666667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.614583333333333</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.635416666666667</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.645833333333333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.677083333333333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.697916666666667</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.708333333333333</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.739583333333333</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.760416666666667</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.770833333333333</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.802083333333333</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.822916666666667</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.854166666666667</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.864583333333333</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.885416666666667</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.895833333333333</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.927083333333333</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.947916666666667</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.958333333333333</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.979166666666667</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.989583333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analysis!$B$35:$CJ$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.472135954999578</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.342099196813484</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.356969484781083</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.079215610874227</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.29976207506937</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>53.62835071116754</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.046514401738484</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.81501610008696</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.870540018881464</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.657675887630657</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.63330765278388</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.97217382873427</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11.48912529307606</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.69543637477362</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.133397807202561</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.641968962724581</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.526422866425967</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.013840995599095</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.507132682112034</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.605551275463988</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Friday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>analysis!$B$1:$CJ$1</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm\ AM/PM</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.135416666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.145833333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.197916666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.229166666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.260416666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.270833333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.302083333333333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.322916666666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.354166666666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.364583333333333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.385416666666667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.395833333333333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.427083333333333</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.447916666666667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.489583333333333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.510416666666667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.541666666666667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.552083333333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.572916666666667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.614583333333333</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.635416666666667</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.645833333333333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.677083333333333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.697916666666667</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.708333333333333</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.739583333333333</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.760416666666667</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.770833333333333</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.802083333333333</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.822916666666667</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.854166666666667</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.864583333333333</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.885416666666667</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.895833333333333</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.927083333333333</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.947916666666667</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.958333333333333</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.979166666666667</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.989583333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analysis!$B$36:$CJ$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.059886320899284</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.818589087547962</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.380617018914066</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.416198487095667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.138089935299395</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.979130371550696</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.363574011458169</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.190698286512774</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.76457178290909</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.979130371550696</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.133397807202561</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.077213232871102</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.043896962397911</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.80656320908193</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.804757862395016</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.127513992779762</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.405351177211819</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.830951894845298</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Saturday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>analysis!$B$1:$CJ$1</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm\ AM/PM</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.135416666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.145833333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.197916666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.229166666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.260416666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.270833333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.302083333333333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.322916666666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.354166666666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.364583333333333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.385416666666667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.395833333333333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.427083333333333</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.447916666666667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.489583333333333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.510416666666667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.541666666666667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.552083333333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.572916666666667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.614583333333333</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.635416666666667</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.645833333333333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.677083333333333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.697916666666667</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.708333333333333</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.739583333333333</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.760416666666667</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.770833333333333</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.802083333333333</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.822916666666667</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.854166666666667</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.864583333333333</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.885416666666667</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.895833333333333</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.927083333333333</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.947916666666667</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.958333333333333</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.979166666666667</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.989583333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analysis!$B$37:$CJ$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.472135954999578</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.181145673655051</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.681417535558385</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21.63330765278395</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.145664959014685</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.47213595499958</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.553138954016902</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.446737587922818</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.738983819167982</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.472994637951899</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.399538594631898</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.98998327754521</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>20.21138293140768</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.176350047203664</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.264705033528404</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:shape val="box"/>
+        <c:axId val="2125018224"/>
+        <c:axId val="-2091476016"/>
+        <c:axId val="-2096009552"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="2125018224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Helvetica Neue Light" charset="0"/>
+                <a:ea typeface="Helvetica Neue Light" charset="0"/>
+                <a:cs typeface="Helvetica Neue Light" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2091476016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2091476016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Helvetica Neue Light" charset="0"/>
+                <a:ea typeface="Helvetica Neue Light" charset="0"/>
+                <a:cs typeface="Helvetica Neue Light" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2125018224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="-2096009552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Helvetica Neue Light" charset="0"/>
+                <a:ea typeface="Helvetica Neue Light" charset="0"/>
+                <a:cs typeface="Helvetica Neue Light" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2091476016"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue Light" charset="0"/>
+              <a:ea typeface="Helvetica Neue Light" charset="0"/>
+              <a:cs typeface="Helvetica Neue Light" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="0" i="0">
+          <a:latin typeface="Helvetica Neue Light" charset="0"/>
+          <a:ea typeface="Helvetica Neue Light" charset="0"/>
+          <a:cs typeface="Helvetica Neue Light" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5516,10 +9831,10 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.263846284534354</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.905001905002857</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0.0</c:v>
@@ -6161,7 +10476,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.0</c:v>
+                  <c:v>2.234535899226393</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>2.237230275755962</c:v>
@@ -7193,7 +11508,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.762904424261449</c:v>
+                  <c:v>1.766106897672737</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.0</c:v>
@@ -7214,7 +11529,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.78547781685541</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0.0</c:v>
@@ -7847,7 +12162,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0</c:v>
+                  <c:v>2.229481606852615</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>0.0</c:v>
@@ -8228,7 +12543,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>1.788854381999831</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.0</c:v>
@@ -8429,7 +12744,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.0</c:v>
+                  <c:v>1.664100588675687</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>0.0</c:v>
@@ -8896,16 +13211,16 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.426044531419248</c:v>
+                  <c:v>2.428935394098401</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0</c:v>
+                  <c:v>2.170318035180967</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0</c:v>
+                  <c:v>1.895225670436199</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0.0</c:v>
@@ -9017,12 +13332,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2069790880"/>
-        <c:axId val="-2057839392"/>
-        <c:axId val="-2101401728"/>
+        <c:axId val="2125090096"/>
+        <c:axId val="2137419584"/>
+        <c:axId val="2135637536"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2069790880"/>
+        <c:axId val="2125090096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9055,7 +13370,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2057839392"/>
+        <c:crossAx val="2137419584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9063,7 +13378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2057839392"/>
+        <c:axId val="2137419584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9104,12 +13419,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2069790880"/>
+        <c:crossAx val="2125090096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2101401728"/>
+        <c:axId val="2135637536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9141,7 +13456,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2057839392"/>
+        <c:crossAx val="2137419584"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -9188,7 +13503,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9957,7 +14272,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.0</c:v>
+                  <c:v>1.565247584249853</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0.0</c:v>
@@ -13449,12 +17764,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2097525760"/>
-        <c:axId val="-2102061392"/>
-        <c:axId val="-2062236080"/>
+        <c:axId val="2135526880"/>
+        <c:axId val="2139888512"/>
+        <c:axId val="-2095167152"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2097525760"/>
+        <c:axId val="2135526880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13487,7 +17802,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102061392"/>
+        <c:crossAx val="2139888512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13495,7 +17810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102061392"/>
+        <c:axId val="2139888512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13535,12 +17850,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2097525760"/>
+        <c:crossAx val="2135526880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2062236080"/>
+        <c:axId val="-2095167152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13572,7 +17887,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102061392"/>
+        <c:crossAx val="2139888512"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -13602,4321 +17917,6 @@
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr b="0" i="0">
-          <a:latin typeface="Helvetica Neue Light" charset="0"/>
-          <a:ea typeface="Helvetica Neue Light" charset="0"/>
-          <a:cs typeface="Helvetica Neue Light" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Helvetica Neue Light" charset="0"/>
-                <a:ea typeface="Helvetica Neue Light" charset="0"/>
-                <a:cs typeface="Helvetica Neue Light" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Normal</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Helvetica Neue Light" charset="0"/>
-              <a:ea typeface="Helvetica Neue Light" charset="0"/>
-              <a:cs typeface="Helvetica Neue Light" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sunday</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>analysis!$B$1:$CJ$1</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm\ AM/PM</c:formatCode>
-                <c:ptCount val="87"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0208333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.135416666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.145833333333333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.197916666666667</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.21875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.229166666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.260416666666667</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.270833333333333</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.28125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.291666666666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.302083333333333</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.322916666666667</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.34375</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.354166666666667</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.364583333333333</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.385416666666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.395833333333333</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.40625</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.427083333333333</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.447916666666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.458333333333333</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.46875</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.489583333333333</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.510416666666667</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.53125</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.541666666666667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.552083333333333</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.572916666666667</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.59375</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.614583333333333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.635416666666667</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.645833333333333</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.65625</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.677083333333333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.6875</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.697916666666667</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.708333333333333</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.71875</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.739583333333333</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.760416666666667</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.770833333333333</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.78125</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.791666666666667</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.802083333333333</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.8125</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.822916666666667</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.84375</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.854166666666667</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.864583333333333</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.885416666666667</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.895833333333333</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.90625</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.916666666666667</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.927083333333333</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.9375</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.947916666666667</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.958333333333333</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.96875</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.979166666666667</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.989583333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$B$31:$CJ$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.061552812808831</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.870540018881465</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.079215610874227</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.839651043435076</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>28.35489375751557</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.515405728048024</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.311655251113367</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.39165214862028</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.244281622256886</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4.013864859597431</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3.399076199243622</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.766365445449639</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>26.57066051117277</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2.542205718929011</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.368563821901291</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>8.916277250063508</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>3.144660377352201</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$A$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Monday</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>analysis!$B$1:$CJ$1</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm\ AM/PM</c:formatCode>
-                <c:ptCount val="87"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0208333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.135416666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.145833333333333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.197916666666667</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.21875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.229166666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.260416666666667</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.270833333333333</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.28125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.291666666666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.302083333333333</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.322916666666667</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.34375</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.354166666666667</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.364583333333333</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.385416666666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.395833333333333</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.40625</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.427083333333333</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.447916666666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.458333333333333</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.46875</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.489583333333333</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.510416666666667</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.53125</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.541666666666667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.552083333333333</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.572916666666667</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.59375</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.614583333333333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.635416666666667</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.645833333333333</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.65625</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.677083333333333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.6875</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.697916666666667</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.708333333333333</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.71875</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.739583333333333</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.760416666666667</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.770833333333333</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.78125</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.791666666666667</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.802083333333333</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.8125</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.822916666666667</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.84375</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.854166666666667</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.864583333333333</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.885416666666667</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.895833333333333</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.90625</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.916666666666667</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.927083333333333</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.9375</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.947916666666667</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.958333333333333</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.96875</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.979166666666667</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.989583333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$B$32:$CJ$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.061552812808831</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.113941815660969</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.756574397610111</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.568466729604885</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>13.59738536958075</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.98121471129282</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.449489742783178</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4.847679857416328</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.363574011458169</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.19761837236307</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7.176350047203664</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.263846284534354</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4.013864859597431</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.979130371550696</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.720294101747088</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>26.57066051117277</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2.422884720817392</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>13.59738536958075</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.127513992779762</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>14.2126704035519</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>5.01426536422407</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$A$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tuesday</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>analysis!$B$1:$CJ$1</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm\ AM/PM</c:formatCode>
-                <c:ptCount val="87"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0208333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.135416666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.145833333333333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.197916666666667</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.21875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.229166666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.260416666666667</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.270833333333333</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.28125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.291666666666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.302083333333333</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.322916666666667</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.34375</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.354166666666667</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.364583333333333</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.385416666666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.395833333333333</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.40625</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.427083333333333</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.447916666666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.458333333333333</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.46875</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.489583333333333</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.510416666666667</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.53125</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.541666666666667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.552083333333333</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.572916666666667</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.59375</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.614583333333333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.635416666666667</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.645833333333333</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.65625</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.677083333333333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.6875</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.697916666666667</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.708333333333333</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.71875</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.739583333333333</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.760416666666667</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.770833333333333</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.78125</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.791666666666667</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.802083333333333</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.8125</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.822916666666667</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.84375</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.854166666666667</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.864583333333333</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.885416666666667</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.895833333333333</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.90625</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.916666666666667</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.927083333333333</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.9375</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.947916666666667</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.958333333333333</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.96875</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.979166666666667</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.989583333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$B$33:$CJ$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.059886320899284</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.966479394838265</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.079215610874227</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>22.89104628451913</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.938058451861286</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.120912514978817</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.209072203437452</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.633122354417532</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3.738983819167982</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.472994637951899</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.074774084087228</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.641968962724581</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.870540018881464</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10.19803902718557</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.264705033528404</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>14.2126704035519</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$A$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Wednesday</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>analysis!$B$1:$CJ$1</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm\ AM/PM</c:formatCode>
-                <c:ptCount val="87"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0208333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.135416666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.145833333333333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.197916666666667</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.21875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.229166666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.260416666666667</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.270833333333333</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.28125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.291666666666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.302083333333333</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.322916666666667</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.34375</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.354166666666667</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.364583333333333</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.385416666666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.395833333333333</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.40625</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.427083333333333</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.447916666666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.458333333333333</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.46875</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.489583333333333</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.510416666666667</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.53125</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.541666666666667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.552083333333333</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.572916666666667</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.59375</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.614583333333333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.635416666666667</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.645833333333333</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.65625</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.677083333333333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.6875</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.697916666666667</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.708333333333333</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.71875</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.739583333333333</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.760416666666667</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.770833333333333</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.78125</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.791666666666667</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.802083333333333</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.8125</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.822916666666667</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.84375</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.854166666666667</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.864583333333333</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.885416666666667</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.895833333333333</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.90625</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.916666666666667</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.927083333333333</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.9375</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.947916666666667</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.958333333333333</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.96875</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.979166666666667</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.989583333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$B$34:$CJ$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.113941815660969</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.416198487095667</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.176350047203659</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>27.09243436828806</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.815174380753201</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.082207001484488</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.585429257288709</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.003084041924438</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7.28991475552747</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.831146819219179</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.263846284534354</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.472994637951899</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.399538594631898</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.98998327754521</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>22.2710574513201</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Thursday</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>analysis!$B$1:$CJ$1</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm\ AM/PM</c:formatCode>
-                <c:ptCount val="87"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0208333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.135416666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.145833333333333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.197916666666667</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.21875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.229166666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.260416666666667</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.270833333333333</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.28125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.291666666666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.302083333333333</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.322916666666667</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.34375</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.354166666666667</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.364583333333333</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.385416666666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.395833333333333</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.40625</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.427083333333333</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.447916666666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.458333333333333</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.46875</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.489583333333333</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.510416666666667</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.53125</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.541666666666667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.552083333333333</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.572916666666667</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.59375</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.614583333333333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.635416666666667</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.645833333333333</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.65625</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.677083333333333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.6875</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.697916666666667</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.708333333333333</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.71875</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.739583333333333</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.760416666666667</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.770833333333333</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.78125</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.791666666666667</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.802083333333333</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.8125</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.822916666666667</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.84375</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.854166666666667</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.864583333333333</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.885416666666667</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.895833333333333</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.90625</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.916666666666667</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.927083333333333</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.9375</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.947916666666667</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.958333333333333</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.96875</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.979166666666667</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.989583333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$B$35:$CJ$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.342099196813484</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.356969484781083</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.079215610874227</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.29976207506937</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>53.62835071116754</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.046514401738484</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.81501610008696</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.870540018881464</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>8.96521053852055</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7.97217382873427</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>11.48912529307606</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>3.69543637477362</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.133397807202561</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.641968962724581</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.526422866425967</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.507132682112034</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$A$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Friday</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>analysis!$B$1:$CJ$1</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm\ AM/PM</c:formatCode>
-                <c:ptCount val="87"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0208333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.135416666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.145833333333333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.197916666666667</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.21875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.229166666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.260416666666667</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.270833333333333</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.28125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.291666666666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.302083333333333</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.322916666666667</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.34375</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.354166666666667</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.364583333333333</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.385416666666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.395833333333333</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.40625</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.427083333333333</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.447916666666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.458333333333333</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.46875</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.489583333333333</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.510416666666667</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.53125</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.541666666666667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.552083333333333</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.572916666666667</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.59375</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.614583333333333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.635416666666667</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.645833333333333</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.65625</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.677083333333333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.6875</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.697916666666667</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.708333333333333</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.71875</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.739583333333333</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.760416666666667</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.770833333333333</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.78125</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.791666666666667</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.802083333333333</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.8125</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.822916666666667</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.84375</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.854166666666667</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.864583333333333</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.885416666666667</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.895833333333333</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.90625</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.916666666666667</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.927083333333333</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.9375</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.947916666666667</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.958333333333333</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.96875</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.979166666666667</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.989583333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$B$36:$CJ$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.059886320899284</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.818589087547962</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.380617018914066</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.416198487095667</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.138089935299395</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.979130371550696</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.363574011458169</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.26007655946202</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>18.11077027627484</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.149603149604724</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>10.93414631123781</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.979130371550696</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.133397807202561</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.077213232871102</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2.043896962397911</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>8.80656320908193</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2.804757862395016</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.127513992779762</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.405351177211819</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$A$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Saturday</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>analysis!$B$1:$CJ$1</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm\ AM/PM</c:formatCode>
-                <c:ptCount val="87"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0208333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.135416666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.145833333333333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.197916666666667</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.21875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.229166666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.260416666666667</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.270833333333333</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.28125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.291666666666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.302083333333333</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.322916666666667</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.34375</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.354166666666667</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.364583333333333</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.385416666666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.395833333333333</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.40625</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.427083333333333</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.447916666666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.458333333333333</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.46875</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.489583333333333</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.510416666666667</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.53125</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.541666666666667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.552083333333333</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.572916666666667</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.59375</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.614583333333333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.635416666666667</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.645833333333333</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.65625</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.677083333333333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.6875</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.697916666666667</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.708333333333333</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.71875</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.739583333333333</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.760416666666667</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.770833333333333</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.78125</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.791666666666667</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.802083333333333</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.8125</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.822916666666667</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.84375</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.854166666666667</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.864583333333333</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.885416666666667</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.895833333333333</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.90625</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.916666666666667</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.927083333333333</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.9375</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.947916666666667</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.958333333333333</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.96875</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.979166666666667</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.989583333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$B$37:$CJ$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.181145673655051</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.681417535558385</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>21.63330765278395</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.018461712712472</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.553138954016902</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.446737587922818</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3.738983819167982</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.472994637951899</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.399538594631898</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.98998327754521</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>20.21138293140768</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7.176350047203664</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.264705033528404</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:shape val="box"/>
-        <c:axId val="-2050745904"/>
-        <c:axId val="-2050189216"/>
-        <c:axId val="-2050003328"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="-2050745904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Helvetica Neue Light" charset="0"/>
-                <a:ea typeface="Helvetica Neue Light" charset="0"/>
-                <a:cs typeface="Helvetica Neue Light" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2050189216"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2050189216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Helvetica Neue Light" charset="0"/>
-                <a:ea typeface="Helvetica Neue Light" charset="0"/>
-                <a:cs typeface="Helvetica Neue Light" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2050745904"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:serAx>
-        <c:axId val="-2050003328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Helvetica Neue Light" charset="0"/>
-                <a:ea typeface="Helvetica Neue Light" charset="0"/>
-                <a:cs typeface="Helvetica Neue Light" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2050189216"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Helvetica Neue Light" charset="0"/>
-              <a:ea typeface="Helvetica Neue Light" charset="0"/>
-              <a:cs typeface="Helvetica Neue Light" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -18481,7 +18481,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="153" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="153" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18514,7 +18514,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="152" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="153" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18552,7 +18552,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674183" cy="6291895"/>
+    <xdr:ext cx="8678333" cy="6290733"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -18606,7 +18606,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674014" cy="6280884"/>
+    <xdr:ext cx="8674183" cy="6291895"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -18630,7 +18630,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="person" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="person_1" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18898,8 +18898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ37"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19460,7 +19460,7 @@
       </c>
       <c r="AX2" s="1">
         <f>SUM(person!AX2:AX8)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AY2" s="1">
         <f>SUM(person!AY2:AY8)</f>
@@ -19472,27 +19472,27 @@
       </c>
       <c r="BA2" s="1">
         <f>SUM(person!BA2:BA8)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB2" s="1">
         <f>SUM(person!BB2:BB8)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC2" s="1">
         <f>SUM(person!BC2:BC8)</f>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="BD2" s="1">
         <f>SUM(person!BD2:BD8)</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="BE2" s="1">
         <f>SUM(person!BE2:BE8)</f>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="BF2" s="1">
         <f>SUM(person!BF2:BF8)</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="BG2" s="1">
         <f>SUM(person!BG2:BG8)</f>
@@ -19813,7 +19813,7 @@
       </c>
       <c r="AX3" s="1">
         <f>AVERAGE(person!AX2:AX8)</f>
-        <v>7.4285714285714288</v>
+        <v>7.7142857142857144</v>
       </c>
       <c r="AY3" s="1">
         <f>AVERAGE(person!AY2:AY8)</f>
@@ -19825,27 +19825,27 @@
       </c>
       <c r="BA3" s="1">
         <f>AVERAGE(person!BA2:BA8)</f>
-        <v>2.5714285714285716</v>
+        <v>2.7142857142857144</v>
       </c>
       <c r="BB3" s="1">
         <f>AVERAGE(person!BB2:BB8)</f>
-        <v>1.1428571428571428</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="BC3" s="1">
         <f>AVERAGE(person!BC2:BC8)</f>
-        <v>2.1428571428571428</v>
+        <v>4</v>
       </c>
       <c r="BD3" s="1">
         <f>AVERAGE(person!BD2:BD8)</f>
-        <v>2.7142857142857144</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="BE3" s="1">
         <f>AVERAGE(person!BE2:BE8)</f>
-        <v>3.8571428571428572</v>
+        <v>4.8571428571428568</v>
       </c>
       <c r="BF3" s="1">
         <f>AVERAGE(person!BF2:BF8)</f>
-        <v>6.5714285714285712</v>
+        <v>7</v>
       </c>
       <c r="BG3" s="1">
         <f>AVERAGE(person!BG2:BG8)</f>
@@ -20190,7 +20190,7 @@
       </c>
       <c r="BD4" s="1">
         <f>MIN(person!BD2:BD8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="1">
         <f>MIN(person!BE2:BE8)</f>
@@ -20531,7 +20531,7 @@
       </c>
       <c r="BA5" s="1">
         <f>MAX(person!BA2:BA8)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB5" s="1">
         <f>MAX(person!BB2:BB8)</f>
@@ -20539,11 +20539,11 @@
       </c>
       <c r="BC5" s="1">
         <f>MAX(person!BC2:BC8)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BD5" s="1">
         <f>MAX(person!BD2:BD8)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BE5" s="1">
         <f>MAX(person!BE2:BE8)</f>
@@ -20872,7 +20872,7 @@
       </c>
       <c r="AX6" s="1">
         <f>_xlfn.STDEV.P(person!AX2:AX8)</f>
-        <v>5.9965976748043879</v>
+        <v>5.8239477458970024</v>
       </c>
       <c r="AY6" s="1">
         <f>_xlfn.STDEV.P(person!AY2:AY8)</f>
@@ -20884,27 +20884,27 @@
       </c>
       <c r="BA6" s="1">
         <f>_xlfn.STDEV.P(person!BA2:BA8)</f>
-        <v>5.122977450583174</v>
+        <v>5.4697684911647562</v>
       </c>
       <c r="BB6" s="1">
         <f>_xlfn.STDEV.P(person!BB2:BB8)</f>
-        <v>1.4568627181693672</v>
+        <v>1.7612611437054218</v>
       </c>
       <c r="BC6" s="1">
         <f>_xlfn.STDEV.P(person!BC2:BC8)</f>
-        <v>2.5872528966106905</v>
+        <v>5.5291435658181793</v>
       </c>
       <c r="BD6" s="1">
         <f>_xlfn.STDEV.P(person!BD2:BD8)</f>
-        <v>2.2497165354319462</v>
+        <v>3.0904725218262765</v>
       </c>
       <c r="BE6" s="1">
         <f>_xlfn.STDEV.P(person!BE2:BE8)</f>
-        <v>3.4404555939406558</v>
+        <v>3.7579846965616874</v>
       </c>
       <c r="BF6" s="1">
         <f>_xlfn.STDEV.P(person!BF2:BF8)</f>
-        <v>4.6860627048162069</v>
+        <v>4.4721359549995796</v>
       </c>
       <c r="BG6" s="1">
         <f>_xlfn.STDEV.P(person!BG2:BG8)</f>
@@ -21033,7 +21033,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" s="11"/>
     </row>
@@ -21133,7 +21133,7 @@
       </c>
       <c r="S12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.7888543819998315</v>
       </c>
       <c r="T12" s="10">
         <f t="shared" si="0"/>
@@ -21257,7 +21257,7 @@
       </c>
       <c r="AX12" s="10">
         <f t="shared" si="0"/>
-        <v>1.7629044242614487</v>
+        <v>1.766106897672737</v>
       </c>
       <c r="AY12" s="10">
         <f t="shared" si="0"/>
@@ -21269,7 +21269,7 @@
       </c>
       <c r="BA12" s="10">
         <f t="shared" si="0"/>
-        <v>2.4260445314192478</v>
+        <v>2.4289353940984011</v>
       </c>
       <c r="BB12" s="10">
         <f t="shared" si="0"/>
@@ -21277,15 +21277,15 @@
       </c>
       <c r="BC12" s="10">
         <f t="shared" si="0"/>
-        <v>2.2638462845343543</v>
+        <v>2.1703180351809674</v>
       </c>
       <c r="BD12" s="10">
         <f t="shared" si="0"/>
-        <v>1.9050019050028573</v>
+        <v>1.8952256704361994</v>
       </c>
       <c r="BE12" s="10">
         <f t="shared" si="0"/>
-        <v>1.7854778168554093</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="10">
         <f t="shared" si="0"/>
@@ -21377,7 +21377,7 @@
       </c>
       <c r="CB12" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.2294816068526151</v>
       </c>
       <c r="CC12" s="10">
         <f t="shared" si="1"/>
@@ -21385,7 +21385,7 @@
       </c>
       <c r="CD12" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.2345358992263935</v>
       </c>
       <c r="CE12" s="10">
         <f t="shared" si="1"/>
@@ -21401,7 +21401,7 @@
       </c>
       <c r="CH12" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.664100588675687</v>
       </c>
       <c r="CI12" s="10">
         <f t="shared" si="1"/>
@@ -21631,11 +21631,11 @@
       </c>
       <c r="BC13" s="3">
         <f>IF(BC$2&gt;$B$8,IF(person!BC2&gt;(BC$3+BC$6*$B$9),(person!BC2-BC$3)/BC$6,0),0)</f>
-        <v>2.2638462845343543</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="3">
         <f>IF(BD$2&gt;$B$8,IF(person!BD2&gt;(BD$3+BD$6*$B$9),(person!BD2-BD$3)/BD$6,0),0)</f>
-        <v>1.9050019050028573</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="3">
         <f>IF(BE$2&gt;$B$8,IF(person!BE2&gt;(BE$3+BE$6*$B$9),(person!BE2-BE$3)/BE$6,0),0)</f>
@@ -22093,7 +22093,7 @@
       </c>
       <c r="CD14" s="3">
         <f>IF(CD$2&gt;$B$8,IF(person!CD3&gt;(CD$3+CD$6*$B$9),(person!CD3-CD$3)/CD$6,0),0)</f>
-        <v>0</v>
+        <v>2.2345358992263935</v>
       </c>
       <c r="CE14" s="3">
         <f>IF(CE$2&gt;$B$8,IF(person!CE3&gt;(CE$3+CE$6*$B$9),(person!CE3-CE$3)/CE$6,0),0)</f>
@@ -22673,7 +22673,7 @@
       </c>
       <c r="AX16" s="3">
         <f>IF(AX$2&gt;$B$8,IF(person!AX5&gt;(AX$3+AX$6*$B$9),(person!AX5-AX$3)/AX$6,0),0)</f>
-        <v>1.7629044242614487</v>
+        <v>1.766106897672737</v>
       </c>
       <c r="AY16" s="3">
         <f>IF(AY$2&gt;$B$8,IF(person!AY5&gt;(AY$3+AY$6*$B$9),(person!AY5-AY$3)/AY$6,0),0)</f>
@@ -22701,7 +22701,7 @@
       </c>
       <c r="BE16" s="3">
         <f>IF(BE$2&gt;$B$8,IF(person!BE5&gt;(BE$3+BE$6*$B$9),(person!BE5-BE$3)/BE$6,0),0)</f>
-        <v>1.7854778168554093</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="3">
         <f>IF(BF$2&gt;$B$8,IF(person!BF5&gt;(BF$3+BF$6*$B$9),(person!BF5-BF$3)/BF$6,0),0)</f>
@@ -23147,7 +23147,7 @@
       </c>
       <c r="CB17" s="3">
         <f>IF(CB$2&gt;$B$8,IF(person!CB6&gt;(CB$3+CB$6*$B$9),(person!CB6-CB$3)/CB$6,0),0)</f>
-        <v>0</v>
+        <v>2.2294816068526151</v>
       </c>
       <c r="CC17" s="3">
         <f>IF(CC$2&gt;$B$8,IF(person!CC6&gt;(CC$3+CC$6*$B$9),(person!CC6-CC$3)/CC$6,0),0)</f>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="S18" s="3">
         <f>IF(S$2&gt;$B$8,IF(person!S7&gt;(S$3+S$6*$B$9),(person!S7-S$3)/S$6,0),0)</f>
-        <v>0</v>
+        <v>1.7888543819998315</v>
       </c>
       <c r="T18" s="3">
         <f>IF(T$2&gt;$B$8,IF(person!T7&gt;(T$3+T$6*$B$9),(person!T7-T$3)/T$6,0),0)</f>
@@ -23525,7 +23525,7 @@
       </c>
       <c r="CH18" s="3">
         <f>IF(CH$2&gt;$B$8,IF(person!CH7&gt;(CH$3+CH$6*$B$9),(person!CH7-CH$3)/CH$6,0),0)</f>
-        <v>0</v>
+        <v>1.664100588675687</v>
       </c>
       <c r="CI18" s="3">
         <f>IF(CI$2&gt;$B$8,IF(person!CI7&gt;(CI$3+CI$6*$B$9),(person!CI7-CI$3)/CI$6,0),0)</f>
@@ -23747,7 +23747,7 @@
       </c>
       <c r="BA19" s="3">
         <f>IF(BA$2&gt;$B$8,IF(person!BA8&gt;(BA$3+BA$6*$B$9),(person!BA8-BA$3)/BA$6,0),0)</f>
-        <v>2.4260445314192478</v>
+        <v>2.4289353940984011</v>
       </c>
       <c r="BB19" s="3">
         <f>IF(BB$2&gt;$B$8,IF(person!BB8&gt;(BB$3+BB$6*$B$9),(person!BB8-BB$3)/BB$6,0),0)</f>
@@ -23755,11 +23755,11 @@
       </c>
       <c r="BC19" s="3">
         <f>IF(BC$2&gt;$B$8,IF(person!BC8&gt;(BC$3+BC$6*$B$9),(person!BC8-BC$3)/BC$6,0),0)</f>
-        <v>0</v>
+        <v>2.1703180351809674</v>
       </c>
       <c r="BD19" s="3">
         <f>IF(BD$2&gt;$B$8,IF(person!BD8&gt;(BD$3+BD$6*$B$9),(person!BD8-BD$3)/BD$6,0),0)</f>
-        <v>0</v>
+        <v>1.8952256704361994</v>
       </c>
       <c r="BE19" s="3">
         <f>IF(BE$2&gt;$B$8,IF(person!BE8&gt;(BE$3+BE$6*$B$9),(person!BE8-BE$3)/BE$6,0),0)</f>
@@ -24210,7 +24210,7 @@
       </c>
       <c r="BF21" s="10">
         <f t="shared" ref="BF21" si="57">SUM(BF22:BF28)</f>
-        <v>0</v>
+        <v>1.5652475842498528</v>
       </c>
       <c r="BG21" s="10">
         <f t="shared" ref="BG21" si="58">SUM(BG22:BG28)</f>
@@ -24564,7 +24564,7 @@
       </c>
       <c r="BF22" s="3">
         <f>IF(BF$2&gt;$B$8,IF(person!BF2&lt;(BF$3-BF$6*$B$9),(BF$3-person!BF2)/BF$6,0),0)</f>
-        <v>0</v>
+        <v>1.5652475842498528</v>
       </c>
       <c r="BG22" s="3">
         <f>IF(BG$2&gt;$B$8,IF(person!BG2&lt;(BG$3-BG$6*$B$9),(BG$3-person!BG2)/BG$6,0),0)</f>
@@ -26975,7 +26975,7 @@
       </c>
       <c r="S30" s="10">
         <f t="shared" ref="S30" si="104">SUM(S31:S37)</f>
-        <v>0</v>
+        <v>17.888543819998311</v>
       </c>
       <c r="T30" s="10">
         <f t="shared" ref="T30" si="105">SUM(T31:T37)</f>
@@ -27099,7 +27099,7 @@
       </c>
       <c r="AX30" s="10">
         <f t="shared" ref="AX30" si="135">SUM(AX31:AX37)</f>
-        <v>4.1976183723630704</v>
+        <v>5.5429678107879363</v>
       </c>
       <c r="AY30" s="10">
         <f t="shared" ref="AY30" si="136">SUM(AY31:AY37)</f>
@@ -27111,27 +27111,27 @@
       </c>
       <c r="BA30" s="10">
         <f t="shared" ref="BA30" si="138">SUM(BA31:BA37)</f>
-        <v>12.225287097982571</v>
+        <v>18.909085634807283</v>
       </c>
       <c r="BB30" s="10">
         <f t="shared" ref="BB30" si="139">SUM(BB31:BB37)</f>
-        <v>0</v>
+        <v>3.082207001484488</v>
       </c>
       <c r="BC30" s="10">
         <f t="shared" ref="BC30" si="140">SUM(BC31:BC37)</f>
-        <v>25.656924558056023</v>
+        <v>2.7645717829090897</v>
       </c>
       <c r="BD30" s="10">
         <f t="shared" ref="BD30" si="141">SUM(BD31:BD37)</f>
-        <v>3.1496031496047241</v>
+        <v>43.266615305567754</v>
       </c>
       <c r="BE30" s="10">
         <f t="shared" ref="BE30" si="142">SUM(BE31:BE37)</f>
-        <v>8.0277297191948627</v>
-      </c>
-      <c r="BF30" s="10">
+        <v>4.0470604424510483</v>
+      </c>
+      <c r="BF30" s="10" t="e">
         <f t="shared" ref="BF30" si="143">SUM(BF31:BF37)</f>
-        <v>10.934146311237811</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BG30" s="10">
         <f t="shared" ref="BG30" si="144">SUM(BG31:BG37)</f>
@@ -27219,7 +27219,7 @@
       </c>
       <c r="CB30" s="10">
         <f t="shared" ref="CB30" si="165">SUM(CB31:CB37)</f>
-        <v>0</v>
+        <v>13.994284547628716</v>
       </c>
       <c r="CC30" s="10">
         <f t="shared" ref="CC30" si="166">SUM(CC31:CC37)</f>
@@ -27227,7 +27227,7 @@
       </c>
       <c r="CD30" s="10">
         <f t="shared" ref="CD30" si="167">SUM(CD31:CD37)</f>
-        <v>0</v>
+        <v>14.096886969193672</v>
       </c>
       <c r="CE30" s="10">
         <f t="shared" ref="CE30" si="168">SUM(CE31:CE37)</f>
@@ -27243,7 +27243,7 @@
       </c>
       <c r="CH30" s="10">
         <f t="shared" ref="CH30" si="171">SUM(CH31:CH37)</f>
-        <v>0</v>
+        <v>7.2111025509279765</v>
       </c>
       <c r="CI30" s="10">
         <f t="shared" ref="CI30" si="172">SUM(CI31:CI37)</f>
@@ -27329,7 +27329,7 @@
       </c>
       <c r="S31" s="3">
         <f>IF(S$2&gt;$B$8,IF(person!S2&gt;(S$3-S$6*$B$10),IF((person!S2&lt;S$3+S$6*$B$10),1/((ABS(S$3-person!S2))/S$6),0),0),0)</f>
-        <v>0</v>
+        <v>4.4721359549995778</v>
       </c>
       <c r="T31" s="3">
         <f>IF(T$2&gt;$B$8,IF(person!T2&gt;(T$3-T$6*$B$10),IF((person!T2&lt;T$3+T$6*$B$10),1/((ABS(T$3-person!T2))/T$6),0),0),0)</f>
@@ -27465,7 +27465,7 @@
       </c>
       <c r="BA31" s="3">
         <f>IF(BA$2&gt;$B$8,IF(person!BA2&gt;(BA$3-BA$6*$B$10),IF((person!BA2&lt;BA$3+BA$6*$B$10),1/((ABS(BA$3-person!BA2))/BA$6),0),0),0)</f>
-        <v>0</v>
+        <v>2.0151778651659629</v>
       </c>
       <c r="BB31" s="3">
         <f>IF(BB$2&gt;$B$8,IF(person!BB2&gt;(BB$3-BB$6*$B$10),IF((person!BB2&lt;BB$3+BB$6*$B$10),1/((ABS(BB$3-person!BB2))/BB$6),0),0),0)</f>
@@ -27481,7 +27481,7 @@
       </c>
       <c r="BE31" s="3">
         <f>IF(BE$2&gt;$B$8,IF(person!BE2&gt;(BE$3-BE$6*$B$10),IF((person!BE2&lt;BE$3+BE$6*$B$10),1/((ABS(BE$3-person!BE2))/BE$6),0),0),0)</f>
-        <v>4.0138648595974313</v>
+        <v>2.0235302212255242</v>
       </c>
       <c r="BF31" s="3">
         <f>IF(BF$2&gt;$B$8,IF(person!BF2&gt;(BF$3-BF$6*$B$10),IF((person!BF2&lt;BF$3+BF$6*$B$10),1/((ABS(BF$3-person!BF2))/BF$6),0),0),0)</f>
@@ -27807,7 +27807,7 @@
       </c>
       <c r="AX32" s="3">
         <f>IF(AX$2&gt;$B$8,IF(person!AX3&gt;(AX$3-AX$6*$B$10),IF((person!AX3&lt;AX$3+AX$6*$B$10),1/((ABS(AX$3-person!AX3))/AX$6),0),0),0)</f>
-        <v>4.1976183723630704</v>
+        <v>3.3973028517732513</v>
       </c>
       <c r="AY32" s="3">
         <f>IF(AY$2&gt;$B$8,IF(person!AY3&gt;(AY$3-AY$6*$B$10),IF((person!AY3&lt;AY$3+AY$6*$B$10),1/((ABS(AY$3-person!AY3))/AY$6),0),0),0)</f>
@@ -27819,27 +27819,27 @@
       </c>
       <c r="BA32" s="3">
         <f>IF(BA$2&gt;$B$8,IF(person!BA3&gt;(BA$3-BA$6*$B$10),IF((person!BA3&lt;BA$3+BA$6*$B$10),1/((ABS(BA$3-person!BA3))/BA$6),0),0),0)</f>
-        <v>0</v>
+        <v>2.0151778651659629</v>
       </c>
       <c r="BB32" s="3">
         <f>IF(BB$2&gt;$B$8,IF(person!BB3&gt;(BB$3-BB$6*$B$10),IF((person!BB3&lt;BB$3+BB$6*$B$10),1/((ABS(BB$3-person!BB3))/BB$6),0),0),0)</f>
-        <v>0</v>
+        <v>3.082207001484488</v>
       </c>
       <c r="BC32" s="3">
         <f>IF(BC$2&gt;$B$8,IF(person!BC3&gt;(BC$3-BC$6*$B$10),IF((person!BC3&lt;BC$3+BC$6*$B$10),1/((ABS(BC$3-person!BC3))/BC$6),0),0),0)</f>
-        <v>2.2638462845343543</v>
+        <v>0</v>
       </c>
       <c r="BD32" s="3">
         <f>IF(BD$2&gt;$B$8,IF(person!BD3&gt;(BD$3-BD$6*$B$10),IF((person!BD3&lt;BD$3+BD$6*$B$10),1/((ABS(BD$3-person!BD3))/BD$6),0),0),0)</f>
-        <v>0</v>
+        <v>21.633307652783877</v>
       </c>
       <c r="BE32" s="3">
         <f>IF(BE$2&gt;$B$8,IF(person!BE3&gt;(BE$3-BE$6*$B$10),IF((person!BE3&lt;BE$3+BE$6*$B$10),1/((ABS(BE$3-person!BE3))/BE$6),0),0),0)</f>
-        <v>4.0138648595974313</v>
+        <v>2.0235302212255242</v>
       </c>
       <c r="BF32" s="3">
         <f>IF(BF$2&gt;$B$8,IF(person!BF3&gt;(BF$3-BF$6*$B$10),IF((person!BF3&lt;BF$3+BF$6*$B$10),1/((ABS(BF$3-person!BF3))/BF$6),0),0),0)</f>
-        <v>0</v>
+        <v>2.2360679774997898</v>
       </c>
       <c r="BG32" s="3">
         <f>IF(BG$2&gt;$B$8,IF(person!BG3&gt;(BG$3-BG$6*$B$10),IF((person!BG3&lt;BG$3+BG$6*$B$10),1/((ABS(BG$3-person!BG3))/BG$6),0),0),0)</f>
@@ -27927,7 +27927,7 @@
       </c>
       <c r="CB32" s="3">
         <f>IF(CB$2&gt;$B$8,IF(person!CB3&gt;(CB$3-CB$6*$B$10),IF((person!CB3&lt;CB$3+CB$6*$B$10),1/((ABS(CB$3-person!CB3))/CB$6),0),0),0)</f>
-        <v>0</v>
+        <v>2.3323807579381204</v>
       </c>
       <c r="CC32" s="3">
         <f>IF(CC$2&gt;$B$8,IF(person!CC3&gt;(CC$3-CC$6*$B$10),IF((person!CC3&lt;CC$3+CC$6*$B$10),1/((ABS(CC$3-person!CC3))/CC$6),0),0),0)</f>
@@ -28173,7 +28173,7 @@
       </c>
       <c r="BA33" s="3">
         <f>IF(BA$2&gt;$B$8,IF(person!BA4&gt;(BA$3-BA$6*$B$10),IF((person!BA4&lt;BA$3+BA$6*$B$10),1/((ABS(BA$3-person!BA4))/BA$6),0),0),0)</f>
-        <v>0</v>
+        <v>2.0151778651659629</v>
       </c>
       <c r="BB33" s="3">
         <f>IF(BB$2&gt;$B$8,IF(person!BB4&gt;(BB$3-BB$6*$B$10),IF((person!BB4&lt;BB$3+BB$6*$B$10),1/((ABS(BB$3-person!BB4))/BB$6),0),0),0)</f>
@@ -28281,7 +28281,7 @@
       </c>
       <c r="CB33" s="3">
         <f>IF(CB$2&gt;$B$8,IF(person!CB4&gt;(CB$3-CB$6*$B$10),IF((person!CB4&lt;CB$3+CB$6*$B$10),1/((ABS(CB$3-person!CB4))/CB$6),0),0),0)</f>
-        <v>0</v>
+        <v>5.8309518948452981</v>
       </c>
       <c r="CC33" s="3">
         <f>IF(CC$2&gt;$B$8,IF(person!CC4&gt;(CC$3-CC$6*$B$10),IF((person!CC4&lt;CC$3+CC$6*$B$10),1/((ABS(CC$3-person!CC4))/CC$6),0),0),0)</f>
@@ -28289,7 +28289,7 @@
       </c>
       <c r="CD33" s="3">
         <f>IF(CD$2&gt;$B$8,IF(person!CD4&gt;(CD$3-CD$6*$B$10),IF((person!CD4&lt;CD$3+CD$6*$B$10),1/((ABS(CD$3-person!CD4))/CD$6),0),0),0)</f>
-        <v>0</v>
+        <v>12.083045973594578</v>
       </c>
       <c r="CE33" s="3">
         <f>IF(CE$2&gt;$B$8,IF(person!CE4&gt;(CE$3-CE$6*$B$10),IF((person!CE4&lt;CE$3+CE$6*$B$10),1/((ABS(CE$3-person!CE4))/CE$6),0),0),0)</f>
@@ -28305,7 +28305,7 @@
       </c>
       <c r="CH33" s="3">
         <f>IF(CH$2&gt;$B$8,IF(person!CH4&gt;(CH$3-CH$6*$B$10),IF((person!CH4&lt;CH$3+CH$6*$B$10),1/((ABS(CH$3-person!CH4))/CH$6),0),0),0)</f>
-        <v>0</v>
+        <v>3.6055512754639882</v>
       </c>
       <c r="CI33" s="3">
         <f>IF(CI$2&gt;$B$8,IF(person!CI4&gt;(CI$3-CI$6*$B$10),IF((person!CI4&lt;CI$3+CI$6*$B$10),1/((ABS(CI$3-person!CI4))/CI$6),0),0),0)</f>
@@ -28391,7 +28391,7 @@
       </c>
       <c r="S34" s="3">
         <f>IF(S$2&gt;$B$8,IF(person!S5&gt;(S$3-S$6*$B$10),IF((person!S5&lt;S$3+S$6*$B$10),1/((ABS(S$3-person!S5))/S$6),0),0),0)</f>
-        <v>0</v>
+        <v>4.4721359549995778</v>
       </c>
       <c r="T34" s="3">
         <f>IF(T$2&gt;$B$8,IF(person!T5&gt;(T$3-T$6*$B$10),IF((person!T5&lt;T$3+T$6*$B$10),1/((ABS(T$3-person!T5))/T$6),0),0),0)</f>
@@ -28527,7 +28527,7 @@
       </c>
       <c r="BA34" s="3">
         <f>IF(BA$2&gt;$B$8,IF(person!BA5&gt;(BA$3-BA$6*$B$10),IF((person!BA5&lt;BA$3+BA$6*$B$10),1/((ABS(BA$3-person!BA5))/BA$6),0),0),0)</f>
-        <v>0</v>
+        <v>2.0151778651659629</v>
       </c>
       <c r="BB34" s="3">
         <f>IF(BB$2&gt;$B$8,IF(person!BB5&gt;(BB$3-BB$6*$B$10),IF((person!BB5&lt;BB$3+BB$6*$B$10),1/((ABS(BB$3-person!BB5))/BB$6),0),0),0)</f>
@@ -28535,7 +28535,7 @@
       </c>
       <c r="BC34" s="3">
         <f>IF(BC$2&gt;$B$8,IF(person!BC5&gt;(BC$3-BC$6*$B$10),IF((person!BC5&lt;BC$3+BC$6*$B$10),1/((ABS(BC$3-person!BC5))/BC$6),0),0),0)</f>
-        <v>2.2638462845343543</v>
+        <v>0</v>
       </c>
       <c r="BD34" s="3">
         <f>IF(BD$2&gt;$B$8,IF(person!BD5&gt;(BD$3-BD$6*$B$10),IF((person!BD5&lt;BD$3+BD$6*$B$10),1/((ABS(BD$3-person!BD5))/BD$6),0),0),0)</f>
@@ -28745,7 +28745,7 @@
       </c>
       <c r="S35" s="3">
         <f>IF(S$2&gt;$B$8,IF(person!S6&gt;(S$3-S$6*$B$10),IF((person!S6&lt;S$3+S$6*$B$10),1/((ABS(S$3-person!S6))/S$6),0),0),0)</f>
-        <v>0</v>
+        <v>4.4721359549995778</v>
       </c>
       <c r="T35" s="3">
         <f>IF(T$2&gt;$B$8,IF(person!T6&gt;(T$3-T$6*$B$10),IF((person!T6&lt;T$3+T$6*$B$10),1/((ABS(T$3-person!T6))/T$6),0),0),0)</f>
@@ -28881,7 +28881,7 @@
       </c>
       <c r="BA35" s="3">
         <f>IF(BA$2&gt;$B$8,IF(person!BA6&gt;(BA$3-BA$6*$B$10),IF((person!BA6&lt;BA$3+BA$6*$B$10),1/((ABS(BA$3-person!BA6))/BA$6),0),0),0)</f>
-        <v>8.9652105385205516</v>
+        <v>7.6576758876306572</v>
       </c>
       <c r="BB35" s="3">
         <f>IF(BB$2&gt;$B$8,IF(person!BB6&gt;(BB$3-BB$6*$B$10),IF((person!BB6&lt;BB$3+BB$6*$B$10),1/((ABS(BB$3-person!BB6))/BB$6),0),0),0)</f>
@@ -28893,7 +28893,7 @@
       </c>
       <c r="BD35" s="3">
         <f>IF(BD$2&gt;$B$8,IF(person!BD6&gt;(BD$3-BD$6*$B$10),IF((person!BD6&lt;BD$3+BD$6*$B$10),1/((ABS(BD$3-person!BD6))/BD$6),0),0),0)</f>
-        <v>0</v>
+        <v>21.633307652783877</v>
       </c>
       <c r="BE35" s="3">
         <f>IF(BE$2&gt;$B$8,IF(person!BE6&gt;(BE$3-BE$6*$B$10),IF((person!BE6&lt;BE$3+BE$6*$B$10),1/((ABS(BE$3-person!BE6))/BE$6),0),0),0)</f>
@@ -28997,7 +28997,7 @@
       </c>
       <c r="CD35" s="3">
         <f>IF(CD$2&gt;$B$8,IF(person!CD6&gt;(CD$3-CD$6*$B$10),IF((person!CD6&lt;CD$3+CD$6*$B$10),1/((ABS(CD$3-person!CD6))/CD$6),0),0),0)</f>
-        <v>0</v>
+        <v>2.0138409955990952</v>
       </c>
       <c r="CE35" s="3">
         <f>IF(CE$2&gt;$B$8,IF(person!CE6&gt;(CE$3-CE$6*$B$10),IF((person!CE6&lt;CE$3+CE$6*$B$10),1/((ABS(CE$3-person!CE6))/CE$6),0),0),0)</f>
@@ -29013,7 +29013,7 @@
       </c>
       <c r="CH35" s="3">
         <f>IF(CH$2&gt;$B$8,IF(person!CH6&gt;(CH$3-CH$6*$B$10),IF((person!CH6&lt;CH$3+CH$6*$B$10),1/((ABS(CH$3-person!CH6))/CH$6),0),0),0)</f>
-        <v>0</v>
+        <v>3.6055512754639882</v>
       </c>
       <c r="CI35" s="3">
         <f>IF(CI$2&gt;$B$8,IF(person!CI6&gt;(CI$3-CI$6*$B$10),IF((person!CI6&lt;CI$3+CI$6*$B$10),1/((ABS(CI$3-person!CI6))/CI$6),0),0),0)</f>
@@ -29235,7 +29235,7 @@
       </c>
       <c r="BA36" s="3">
         <f>IF(BA$2&gt;$B$8,IF(person!BA7&gt;(BA$3-BA$6*$B$10),IF((person!BA7&lt;BA$3+BA$6*$B$10),1/((ABS(BA$3-person!BA7))/BA$6),0),0),0)</f>
-        <v>3.2600765594620196</v>
+        <v>3.1906982865127742</v>
       </c>
       <c r="BB36" s="3">
         <f>IF(BB$2&gt;$B$8,IF(person!BB7&gt;(BB$3-BB$6*$B$10),IF((person!BB7&lt;BB$3+BB$6*$B$10),1/((ABS(BB$3-person!BB7))/BB$6),0),0),0)</f>
@@ -29243,19 +29243,19 @@
       </c>
       <c r="BC36" s="3">
         <f>IF(BC$2&gt;$B$8,IF(person!BC7&gt;(BC$3-BC$6*$B$10),IF((person!BC7&lt;BC$3+BC$6*$B$10),1/((ABS(BC$3-person!BC7))/BC$6),0),0),0)</f>
-        <v>18.110770276274842</v>
+        <v>2.7645717829090897</v>
       </c>
       <c r="BD36" s="3">
         <f>IF(BD$2&gt;$B$8,IF(person!BD7&gt;(BD$3-BD$6*$B$10),IF((person!BD7&lt;BD$3+BD$6*$B$10),1/((ABS(BD$3-person!BD7))/BD$6),0),0),0)</f>
-        <v>3.1496031496047241</v>
+        <v>0</v>
       </c>
       <c r="BE36" s="3">
         <f>IF(BE$2&gt;$B$8,IF(person!BE7&gt;(BE$3-BE$6*$B$10),IF((person!BE7&lt;BE$3+BE$6*$B$10),1/((ABS(BE$3-person!BE7))/BE$6),0),0),0)</f>
         <v>0</v>
       </c>
-      <c r="BF36" s="3">
+      <c r="BF36" s="3" t="e">
         <f>IF(BF$2&gt;$B$8,IF(person!BF7&gt;(BF$3-BF$6*$B$10),IF((person!BF7&lt;BF$3+BF$6*$B$10),1/((ABS(BF$3-person!BF7))/BF$6),0),0),0)</f>
-        <v>10.934146311237811</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BG36" s="3">
         <f>IF(BG$2&gt;$B$8,IF(person!BG7&gt;(BG$3-BG$6*$B$10),IF((person!BG7&lt;BG$3+BG$6*$B$10),1/((ABS(BG$3-person!BG7))/BG$6),0),0),0)</f>
@@ -29343,7 +29343,7 @@
       </c>
       <c r="CB36" s="3">
         <f>IF(CB$2&gt;$B$8,IF(person!CB7&gt;(CB$3-CB$6*$B$10),IF((person!CB7&lt;CB$3+CB$6*$B$10),1/((ABS(CB$3-person!CB7))/CB$6),0),0),0)</f>
-        <v>0</v>
+        <v>5.8309518948452981</v>
       </c>
       <c r="CC36" s="3">
         <f>IF(CC$2&gt;$B$8,IF(person!CC7&gt;(CC$3-CC$6*$B$10),IF((person!CC7&lt;CC$3+CC$6*$B$10),1/((ABS(CC$3-person!CC7))/CC$6),0),0),0)</f>
@@ -29453,7 +29453,7 @@
       </c>
       <c r="S37" s="3">
         <f>IF(S$2&gt;$B$8,IF(person!S8&gt;(S$3-S$6*$B$10),IF((person!S8&lt;S$3+S$6*$B$10),1/((ABS(S$3-person!S8))/S$6),0),0),0)</f>
-        <v>0</v>
+        <v>4.4721359549995778</v>
       </c>
       <c r="T37" s="3">
         <f>IF(T$2&gt;$B$8,IF(person!T8&gt;(T$3-T$6*$B$10),IF((person!T8&lt;T$3+T$6*$B$10),1/((ABS(T$3-person!T8))/T$6),0),0),0)</f>
@@ -29577,7 +29577,7 @@
       </c>
       <c r="AX37" s="3">
         <f>IF(AX$2&gt;$B$8,IF(person!AX8&gt;(AX$3-AX$6*$B$10),IF((person!AX8&lt;AX$3+AX$6*$B$10),1/((ABS(AX$3-person!AX8))/AX$6),0),0),0)</f>
-        <v>0</v>
+        <v>2.145664959014685</v>
       </c>
       <c r="AY37" s="3">
         <f>IF(AY$2&gt;$B$8,IF(person!AY8&gt;(AY$3-AY$6*$B$10),IF((person!AY8&lt;AY$3+AY$6*$B$10),1/((ABS(AY$3-person!AY8))/AY$6),0),0),0)</f>
@@ -29597,7 +29597,7 @@
       </c>
       <c r="BC37" s="3">
         <f>IF(BC$2&gt;$B$8,IF(person!BC8&gt;(BC$3-BC$6*$B$10),IF((person!BC8&lt;BC$3+BC$6*$B$10),1/((ABS(BC$3-person!BC8))/BC$6),0),0),0)</f>
-        <v>3.018461712712472</v>
+        <v>0</v>
       </c>
       <c r="BD37" s="3">
         <f>IF(BD$2&gt;$B$8,IF(person!BD8&gt;(BD$3-BD$6*$B$10),IF((person!BD8&lt;BD$3+BD$6*$B$10),1/((ABS(BD$3-person!BD8))/BD$6),0),0),0)</f>
@@ -29609,7 +29609,7 @@
       </c>
       <c r="BF37" s="3">
         <f>IF(BF$2&gt;$B$8,IF(person!BF8&gt;(BF$3-BF$6*$B$10),IF((person!BF8&lt;BF$3+BF$6*$B$10),1/((ABS(BF$3-person!BF8))/BF$6),0),0),0)</f>
-        <v>0</v>
+        <v>4.4721359549995796</v>
       </c>
       <c r="BG37" s="3">
         <f>IF(BG$2&gt;$B$8,IF(person!BG8&gt;(BG$3-BG$6*$B$10),IF((person!BG8&lt;BG$3+BG$6*$B$10),1/((ABS(BG$3-person!BG8))/BG$6),0),0),0)</f>
@@ -29747,15 +29747,15 @@
   <dimension ref="A1:CJ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="88" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="16384" width="10.83203125" style="1"/>
+    <col min="89" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:88" x14ac:dyDescent="0.25">
@@ -31769,7 +31769,7 @@
         <v>0</v>
       </c>
       <c r="AX8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY8" s="1">
         <v>9</v>
@@ -31778,22 +31778,22 @@
         <v>4</v>
       </c>
       <c r="BA8" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC8" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="BD8" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BE8" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BF8" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG8" s="1">
         <v>11</v>

--- a/public/data/person.xlsx
+++ b/public/data/person.xlsx
@@ -4832,12 +4832,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2136727872"/>
-        <c:axId val="-2060549328"/>
-        <c:axId val="2136724272"/>
+        <c:axId val="-2013760160"/>
+        <c:axId val="-2004654128"/>
+        <c:axId val="-2013908944"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2136727872"/>
+        <c:axId val="-2013760160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4870,7 +4870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2060549328"/>
+        <c:crossAx val="-2004654128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4878,7 +4878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060549328"/>
+        <c:axId val="-2004654128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4919,12 +4919,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136727872"/>
+        <c:crossAx val="-2013760160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="2136724272"/>
+        <c:axId val="-2013908944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4956,12 +4956,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2060549328"/>
+        <c:crossAx val="-2004654128"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -9378,12 +9378,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:shape val="box"/>
-        <c:axId val="-2047470224"/>
-        <c:axId val="-2020082720"/>
-        <c:axId val="-2019741232"/>
+        <c:axId val="-2001828640"/>
+        <c:axId val="-2001948080"/>
+        <c:axId val="-2002306464"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2047470224"/>
+        <c:axId val="-2001828640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9426,7 +9426,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2020082720"/>
+        <c:crossAx val="-2001948080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9434,7 +9434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2020082720"/>
+        <c:axId val="-2001948080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9485,12 +9485,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2047470224"/>
+        <c:crossAx val="-2001828640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2019741232"/>
+        <c:axId val="-2002306464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9526,7 +9526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2020082720"/>
+        <c:crossAx val="-2001948080"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -10325,17 +10325,18 @@
         </c:dLbls>
         <c:gapWidth val="182"/>
         <c:shape val="box"/>
-        <c:axId val="2132912896"/>
-        <c:axId val="-2049688816"/>
+        <c:axId val="-2002478032"/>
+        <c:axId val="-2002440048"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2132912896"/>
+        <c:axId val="-2002478032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm\ AM/PM" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10372,7 +10373,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2049688816"/>
+        <c:crossAx val="-2002440048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10380,7 +10381,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2049688816"/>
+        <c:axId val="-2002440048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10431,7 +10432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132912896"/>
+        <c:crossAx val="-2002478032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14952,12 +14953,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2057747968"/>
-        <c:axId val="-2134876432"/>
-        <c:axId val="-2105907584"/>
+        <c:axId val="-2000897072"/>
+        <c:axId val="-2004606608"/>
+        <c:axId val="-2004123952"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2057747968"/>
+        <c:axId val="-2000897072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14990,7 +14991,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134876432"/>
+        <c:crossAx val="-2004606608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14998,7 +14999,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134876432"/>
+        <c:axId val="-2004606608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15039,12 +15040,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2057747968"/>
+        <c:crossAx val="-2000897072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2105907584"/>
+        <c:axId val="-2004123952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15076,12 +15077,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134876432"/>
+        <c:crossAx val="-2004606608"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -19600,12 +19601,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2017878400"/>
-        <c:axId val="-2106451472"/>
-        <c:axId val="-2017768976"/>
+        <c:axId val="-2018021600"/>
+        <c:axId val="-2017558736"/>
+        <c:axId val="-2018008592"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2017878400"/>
+        <c:axId val="-2018021600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19638,7 +19639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106451472"/>
+        <c:crossAx val="-2017558736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19646,7 +19647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2106451472"/>
+        <c:axId val="-2017558736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19687,12 +19688,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2017878400"/>
+        <c:crossAx val="-2018021600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2017768976"/>
+        <c:axId val="-2018008592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19724,12 +19725,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106451472"/>
+        <c:crossAx val="-2017558736"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -20918,7 +20919,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674183" cy="6291895"/>
+    <xdr:ext cx="8674014" cy="6280884"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -21026,7 +21027,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674183" cy="6291895"/>
+    <xdr:ext cx="8675473" cy="6281351"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -21338,7 +21339,7 @@
     <col min="101" max="102" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:102" s="1" customFormat="1" ht="65" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
@@ -36504,8 +36505,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="97" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="97" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="98" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>

--- a/public/data/person.xlsx
+++ b/public/data/person.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="activity" sheetId="16" r:id="rId1"/>
@@ -404,6 +404,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1793,16 +1794,16 @@
                   <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>1.0</c:v>
@@ -1814,70 +1815,70 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>9.0</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="83">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4850,12 +4851,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2030214944"/>
-        <c:axId val="-1995693200"/>
-        <c:axId val="-2012604480"/>
+        <c:axId val="-1990318240"/>
+        <c:axId val="1796591440"/>
+        <c:axId val="-2030093456"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2030214944"/>
+        <c:axId val="-1990318240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4888,7 +4889,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1995693200"/>
+        <c:crossAx val="1796591440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4896,7 +4897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1995693200"/>
+        <c:axId val="1796591440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4937,12 +4938,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2030214944"/>
+        <c:crossAx val="-1990318240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2012604480"/>
+        <c:axId val="-2030093456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4974,12 +4975,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1995693200"/>
+        <c:crossAx val="1796591440"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5751,7 +5753,7 @@
                   <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>8.0</c:v>
@@ -6329,16 +6331,16 @@
                   <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>0.0</c:v>
@@ -6350,14 +6352,14 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>9.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.0</c:v>
-                </c:pt>
                 <c:pt idx="68">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -6374,32 +6376,32 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>7.0</c:v>
                 </c:pt>
-                <c:pt idx="74">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="80">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>7.0</c:v>
                 </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.0</c:v>
-                </c:pt>
                 <c:pt idx="82">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -6413,7 +6415,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6970,7 +6972,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>0.0</c:v>
@@ -8153,7 +8155,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>0.0</c:v>
@@ -8758,7 +8760,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>0.0</c:v>
@@ -9329,13 +9331,13 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>0.0</c:v>
@@ -9396,12 +9398,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:shape val="box"/>
-        <c:axId val="2113842400"/>
-        <c:axId val="-2009228208"/>
-        <c:axId val="-1990226816"/>
+        <c:axId val="-2037070256"/>
+        <c:axId val="2145968080"/>
+        <c:axId val="2141825568"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2113842400"/>
+        <c:axId val="-2037070256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9444,7 +9446,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2009228208"/>
+        <c:crossAx val="2145968080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9452,7 +9454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2009228208"/>
+        <c:axId val="2145968080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9503,12 +9505,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113842400"/>
+        <c:crossAx val="-2037070256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-1990226816"/>
+        <c:axId val="2141825568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9544,7 +9546,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2009228208"/>
+        <c:crossAx val="2145968080"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -9643,6 +9645,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10220,16 +10223,16 @@
                   <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2.0</c:v>
@@ -10241,55 +10244,55 @@
                   <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>22.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>11.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>28.0</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>15.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>31.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>20.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>10.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>7.0</c:v>
@@ -10304,10 +10307,10 @@
                   <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>3.0</c:v>
@@ -10347,12 +10350,12 @@
         </c:dLbls>
         <c:gapWidth val="182"/>
         <c:shape val="box"/>
-        <c:axId val="2143466256"/>
-        <c:axId val="-2034106720"/>
+        <c:axId val="-2034136576"/>
+        <c:axId val="-2012633696"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2143466256"/>
+        <c:axId val="-2034136576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10395,7 +10398,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2034106720"/>
+        <c:crossAx val="-2012633696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10403,7 +10406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2034106720"/>
+        <c:axId val="-2012633696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10454,7 +10457,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143466256"/>
+        <c:crossAx val="-2034136576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10528,6 +10531,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11950,19 +11954,19 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>0.0</c:v>
@@ -12553,7 +12557,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>13.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>0.0</c:v>
@@ -13132,7 +13136,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>15.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>0.0</c:v>
@@ -13732,7 +13736,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>16.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>0.0</c:v>
@@ -14356,7 +14360,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>0.0</c:v>
@@ -14974,12 +14978,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="1795248896"/>
-        <c:axId val="1795460384"/>
-        <c:axId val="1795463776"/>
+        <c:axId val="-2005082096"/>
+        <c:axId val="1795366416"/>
+        <c:axId val="1795784736"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1795248896"/>
+        <c:axId val="-2005082096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15012,7 +15016,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1795460384"/>
+        <c:crossAx val="1795366416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15020,7 +15024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1795460384"/>
+        <c:axId val="1795366416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15061,12 +15065,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1795248896"/>
+        <c:crossAx val="-2005082096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="1795463776"/>
+        <c:axId val="1795784736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15098,12 +15102,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1795460384"/>
+        <c:crossAx val="1795366416"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15174,6 +15179,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15966,7 +15972,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.565247584249853</c:v>
+                  <c:v>1.566452547926576</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>0.0</c:v>
@@ -16635,10 +16641,10 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.811505837158206</c:v>
+                  <c:v>1.58113883008419</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.651001651002476</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>0.0</c:v>
@@ -17808,7 +17814,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.0</c:v>
+                  <c:v>1.794879079239298</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>0.0</c:v>
@@ -18966,7 +18972,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.986258975839033</c:v>
+                  <c:v>1.921765286964519</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>0.0</c:v>
@@ -18978,7 +18984,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0</c:v>
+                  <c:v>1.592059504335983</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>0.0</c:v>
@@ -19565,7 +19571,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.571810495986751</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>0.0</c:v>
@@ -19620,12 +19626,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2006758784"/>
-        <c:axId val="-2030715376"/>
-        <c:axId val="-2031019936"/>
+        <c:axId val="-1994969328"/>
+        <c:axId val="-2006389040"/>
+        <c:axId val="1796640256"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2006758784"/>
+        <c:axId val="-1994969328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19658,7 +19664,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2030715376"/>
+        <c:crossAx val="-2006389040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19666,7 +19672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2030715376"/>
+        <c:axId val="-2006389040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19707,12 +19713,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2006758784"/>
+        <c:crossAx val="-1994969328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2031019936"/>
+        <c:axId val="1796640256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19744,12 +19750,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2030715376"/>
+        <c:crossAx val="-2006389040"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20368,16 +20375,16 @@
                   <c:v>2.428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.285714285714286</c:v>
+                  <c:v>0.571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>1.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.571428571428571</c:v>
+                  <c:v>1.142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.857142857142857</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>0.285714285714286</c:v>
@@ -20389,55 +20396,55 @@
                   <c:v>0.857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.142857142857143</c:v>
+                  <c:v>1.857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.571428571428571</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.285714285714286</c:v>
+                  <c:v>1.857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>2.714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.714285714285714</c:v>
+                  <c:v>1.857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>2.571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.0</c:v>
+                  <c:v>5.571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0</c:v>
+                  <c:v>1.571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.142857142857143</c:v>
+                  <c:v>2.714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.428571428571429</c:v>
+                  <c:v>4.857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.0</c:v>
+                  <c:v>1.714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.714285714285714</c:v>
+                  <c:v>2.571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.857142857142857</c:v>
+                  <c:v>3.142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.0</c:v>
+                  <c:v>1.571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.428571428571429</c:v>
+                  <c:v>2.428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>3.142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.285714285714286</c:v>
+                  <c:v>2.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1.0</c:v>
@@ -20452,10 +20459,10 @@
                   <c:v>0.714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.571428571428571</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.285714285714286</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>0.428571428571429</c:v>
@@ -20495,11 +20502,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2012912096"/>
-        <c:axId val="-2008047568"/>
+        <c:axId val="-2145603040"/>
+        <c:axId val="-2030093952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2012912096"/>
+        <c:axId val="-2145603040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20541,7 +20548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2008047568"/>
+        <c:crossAx val="-2030093952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20549,7 +20556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2008047568"/>
+        <c:axId val="-2030093952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20599,7 +20606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2012912096"/>
+        <c:crossAx val="-2145603040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22287,7 +22294,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="153" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="164" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22298,7 +22305,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="153" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22309,7 +22316,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="153" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="164" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22320,7 +22327,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="153" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="164" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22331,7 +22338,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="147" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="164" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22342,7 +22349,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674183" cy="6291895"/>
+    <xdr:ext cx="8665427" cy="6280305"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -22369,7 +22376,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674183" cy="6291895"/>
+    <xdr:ext cx="8674014" cy="6280884"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -22396,7 +22403,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674183" cy="6291895"/>
+    <xdr:ext cx="8665427" cy="6280305"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -22423,7 +22430,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674183" cy="6291895"/>
+    <xdr:ext cx="8665427" cy="6280305"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -22450,7 +22457,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674014" cy="6280884"/>
+    <xdr:ext cx="8665427" cy="6280305"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -23956,7 +23963,7 @@
       </c>
       <c r="BH4" s="1">
         <f>person!BH3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI4" s="1">
         <f>person!BI3</f>
@@ -23964,11 +23971,11 @@
       </c>
       <c r="BJ4" s="1">
         <f>person!BJ3</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BK4" s="1">
         <f>person!BK3</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL4" s="1">
         <f>person!BL3</f>
@@ -23984,83 +23991,83 @@
       </c>
       <c r="BO4" s="1">
         <f>person!BO3</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BP4" s="1">
         <f>person!BP3</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BQ4" s="1">
         <f>person!BQ3</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BR4" s="1">
         <f>person!BR3</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS4" s="1">
         <f>person!BS3</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BT4" s="1">
         <f>person!BT3</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU4" s="1">
         <f>person!BU3</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="BV4" s="1">
         <f>person!BV3</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="BW4" s="1">
         <f>person!BW3</f>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="BX4" s="1">
         <f>person!BX3</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BY4" s="1">
         <f>person!BY3</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BZ4" s="1">
         <f>person!BZ3</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CA4" s="1">
         <f>person!CA3</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="CB4" s="1">
         <f>person!CB3</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CC4" s="1">
         <f>person!CC3</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CD4" s="1">
         <f>person!CD3</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CE4" s="1">
         <f>person!CE3</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="CF4" s="1">
         <f>person!CF3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG4" s="1">
         <f>person!CG3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH4" s="1">
         <f>person!CH3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CI4" s="1">
         <f>person!CI3</f>
@@ -24068,15 +24075,15 @@
       </c>
       <c r="CJ4" s="1">
         <f>person!CJ3</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CK4" s="1">
         <f>person!CK3</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CL4" s="1">
         <f>person!CL3</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="CM4" s="1">
         <f>person!CM3</f>
@@ -24108,11 +24115,11 @@
       </c>
       <c r="CT4" s="8">
         <f t="shared" ref="CT4:CT9" si="0">SUM(B4:CS4)</f>
-        <v>324</v>
+        <v>447</v>
       </c>
       <c r="CU4" s="8">
         <f t="shared" ref="CU4:CU9" si="1">AVERAGE(B4:CS4)</f>
-        <v>3.375</v>
+        <v>4.65625</v>
       </c>
       <c r="CV4" s="8">
         <f t="shared" ref="CV4:CV9" si="2">MIN(B4:CJ4)</f>
@@ -24120,11 +24127,11 @@
       </c>
       <c r="CW4" s="8">
         <f t="shared" ref="CW4:CW9" si="3">MAX(B4:CS4)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CX4" s="8">
         <f t="shared" ref="CX4:CX9" si="4">STDEV(B4:CS4)</f>
-        <v>4.8541897258694826</v>
+        <v>5.8216078896686811</v>
       </c>
     </row>
     <row r="5" spans="1:102" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -26415,7 +26422,7 @@
       </c>
       <c r="BH10" s="19">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BI10" s="19">
         <f t="shared" si="6"/>
@@ -26423,11 +26430,11 @@
       </c>
       <c r="BJ10" s="19">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BK10" s="19">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BL10" s="19">
         <f t="shared" si="6"/>
@@ -26443,83 +26450,83 @@
       </c>
       <c r="BO10" s="19">
         <f t="shared" si="7"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="BP10" s="19">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="BQ10" s="19">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BR10" s="19">
         <f t="shared" si="7"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BS10" s="19">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="BT10" s="19">
         <f t="shared" si="7"/>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="BU10" s="19">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="BV10" s="19">
         <f t="shared" si="7"/>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="BW10" s="19">
         <f t="shared" si="7"/>
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="BX10" s="19">
         <f t="shared" si="7"/>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="BY10" s="19">
         <f t="shared" si="7"/>
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="BZ10" s="19">
         <f t="shared" si="7"/>
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="CA10" s="19">
         <f t="shared" si="7"/>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="CB10" s="19">
         <f t="shared" si="7"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="CC10" s="19">
         <f t="shared" si="7"/>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="CD10" s="19">
         <f t="shared" si="7"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CE10" s="19">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="CF10" s="19">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CG10" s="19">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CH10" s="19">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CI10" s="19">
         <f t="shared" si="7"/>
@@ -26527,15 +26534,15 @@
       </c>
       <c r="CJ10" s="19">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="CK10" s="19">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="CL10" s="19">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="CM10" s="19">
         <f t="shared" si="7"/>
@@ -26567,11 +26574,11 @@
       </c>
       <c r="CT10" s="20">
         <f>SUM(B10:CS10)</f>
-        <v>2708</v>
+        <v>2831</v>
       </c>
       <c r="CU10" s="20">
         <f>AVERAGE(B10:CS10)</f>
-        <v>28.208333333333332</v>
+        <v>29.489583333333332</v>
       </c>
       <c r="CV10" s="20">
         <f>MIN(B10:CJ10)</f>
@@ -26583,7 +26590,7 @@
       </c>
       <c r="CX10" s="20">
         <f>STDEV(B10:CS10)</f>
-        <v>23.668729833470668</v>
+        <v>24.69220835625627</v>
       </c>
     </row>
     <row r="11" spans="1:102" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -26824,7 +26831,7 @@
       </c>
       <c r="BH11" s="21">
         <f>AVERAGE(person!BH2:BH8)</f>
-        <v>4.7142857142857144</v>
+        <v>4.8571428571428568</v>
       </c>
       <c r="BI11" s="21">
         <f>AVERAGE(person!BI2:BI8)</f>
@@ -26832,11 +26839,11 @@
       </c>
       <c r="BJ11" s="21">
         <f>AVERAGE(person!BJ2:BJ8)</f>
-        <v>2.8571428571428572</v>
+        <v>3.4285714285714284</v>
       </c>
       <c r="BK11" s="21">
         <f>AVERAGE(person!BK2:BK8)</f>
-        <v>3.5714285714285716</v>
+        <v>3.7142857142857144</v>
       </c>
       <c r="BL11" s="21">
         <f>AVERAGE(person!BL2:BL8)</f>
@@ -26852,83 +26859,83 @@
       </c>
       <c r="BO11" s="21">
         <f>AVERAGE(person!BO2:BO8)</f>
-        <v>7</v>
+        <v>7.2857142857142856</v>
       </c>
       <c r="BP11" s="21">
         <f>AVERAGE(person!BP2:BP8)</f>
-        <v>3.4285714285714284</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="BQ11" s="21">
         <f>AVERAGE(person!BQ2:BQ8)</f>
-        <v>3.8571428571428572</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="BR11" s="21">
         <f>AVERAGE(person!BR2:BR8)</f>
-        <v>9.1428571428571423</v>
+        <v>9.2857142857142865</v>
       </c>
       <c r="BS11" s="21">
         <f>AVERAGE(person!BS2:BS8)</f>
-        <v>4.7142857142857144</v>
+        <v>7</v>
       </c>
       <c r="BT11" s="21">
         <f>AVERAGE(person!BT2:BT8)</f>
-        <v>8.7142857142857135</v>
+        <v>9.2857142857142865</v>
       </c>
       <c r="BU11" s="21">
         <f>AVERAGE(person!BU2:BU8)</f>
-        <v>8.5714285714285712</v>
+        <v>10.285714285714286</v>
       </c>
       <c r="BV11" s="21">
         <f>AVERAGE(person!BV2:BV8)</f>
-        <v>8.4285714285714288</v>
+        <v>9.8571428571428577</v>
       </c>
       <c r="BW11" s="21">
         <f>AVERAGE(person!BW2:BW8)</f>
-        <v>7</v>
+        <v>8.5714285714285712</v>
       </c>
       <c r="BX11" s="21">
         <f>AVERAGE(person!BX2:BX8)</f>
-        <v>9.5714285714285712</v>
+        <v>10.142857142857142</v>
       </c>
       <c r="BY11" s="21">
         <f>AVERAGE(person!BY2:BY8)</f>
-        <v>9.4285714285714288</v>
+        <v>10.142857142857142</v>
       </c>
       <c r="BZ11" s="21">
         <f>AVERAGE(person!BZ2:BZ8)</f>
-        <v>8.2857142857142865</v>
+        <v>9</v>
       </c>
       <c r="CA11" s="21">
         <f>AVERAGE(person!CA2:CA8)</f>
-        <v>8.1428571428571423</v>
+        <v>8.8571428571428577</v>
       </c>
       <c r="CB11" s="21">
         <f>AVERAGE(person!CB2:CB8)</f>
-        <v>5.1428571428571432</v>
+        <v>5.5714285714285712</v>
       </c>
       <c r="CC11" s="21">
         <f>AVERAGE(person!CC2:CC8)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CD11" s="21">
         <f>AVERAGE(person!CD2:CD8)</f>
-        <v>12</v>
+        <v>12.142857142857142</v>
       </c>
       <c r="CE11" s="21">
         <f>AVERAGE(person!CE2:CE8)</f>
-        <v>7.1428571428571432</v>
+        <v>7.7142857142857144</v>
       </c>
       <c r="CF11" s="21">
         <f>AVERAGE(person!CF2:CF8)</f>
-        <v>3.7142857142857144</v>
+        <v>3.8571428571428572</v>
       </c>
       <c r="CG11" s="21">
         <f>AVERAGE(person!CG2:CG8)</f>
-        <v>3.7142857142857144</v>
+        <v>3.8571428571428572</v>
       </c>
       <c r="CH11" s="21">
         <f>AVERAGE(person!CH2:CH8)</f>
-        <v>3.7142857142857144</v>
+        <v>3.8571428571428572</v>
       </c>
       <c r="CI11" s="21">
         <f>AVERAGE(person!CI2:CI8)</f>
@@ -26936,15 +26943,15 @@
       </c>
       <c r="CJ11" s="21">
         <f>AVERAGE(person!CJ2:CJ8)</f>
-        <v>3.4285714285714284</v>
+        <v>3.8571428571428572</v>
       </c>
       <c r="CK11" s="21">
         <f>AVERAGE(person!CK2:CK8)</f>
-        <v>2</v>
+        <v>2.7142857142857144</v>
       </c>
       <c r="CL11" s="21">
         <f>AVERAGE(person!CL2:CL8)</f>
-        <v>2.1428571428571428</v>
+        <v>3.2857142857142856</v>
       </c>
       <c r="CM11" s="21">
         <f>AVERAGE(person!CM2:CM8)</f>
@@ -26976,11 +26983,11 @@
       </c>
       <c r="CT11" s="20">
         <f>SUM(B11:CS11)</f>
-        <v>386.857142857143</v>
+        <v>404.42857142857133</v>
       </c>
       <c r="CU11" s="20">
         <f>AVERAGE(B11:CS11)</f>
-        <v>4.029761904761906</v>
+        <v>4.2127976190476177</v>
       </c>
       <c r="CV11" s="20">
         <f>MIN(B11:CJ11)</f>
@@ -26992,7 +26999,7 @@
       </c>
       <c r="CX11" s="20">
         <f>STDEV(B11:CS11)</f>
-        <v>3.3812471190672384</v>
+        <v>3.5274583366080408</v>
       </c>
     </row>
     <row r="12" spans="1:102" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -27277,11 +27284,11 @@
       </c>
       <c r="BS12" s="21">
         <f>MIN(person!BS2:BS8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT12" s="21">
         <f>MIN(person!BT2:BT8)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU12" s="21">
         <f>MIN(person!BU2:BU8)</f>
@@ -27329,11 +27336,11 @@
       </c>
       <c r="CF12" s="21">
         <f>MIN(person!CF2:CF8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG12" s="21">
         <f>MIN(person!CG2:CG8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH12" s="21">
         <f>MIN(person!CH2:CH8)</f>
@@ -27385,11 +27392,11 @@
       </c>
       <c r="CT12" s="20">
         <f>SUM(B12:CS12)</f>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="CU12" s="20">
         <f>AVERAGE(B12:CS12)</f>
-        <v>0.36458333333333331</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="CV12" s="20">
         <f>MIN(B12:CJ12)</f>
@@ -27401,7 +27408,7 @@
       </c>
       <c r="CX12" s="20">
         <f>STDEV(B12:CS12)</f>
-        <v>0.82231754228575049</v>
+        <v>0.86748021869352232</v>
       </c>
     </row>
     <row r="13" spans="1:102" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -27686,7 +27693,7 @@
       </c>
       <c r="BS13" s="21">
         <f>MAX(person!BS2:BS8)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BT13" s="21">
         <f>MAX(person!BT2:BT8)</f>
@@ -27694,15 +27701,15 @@
       </c>
       <c r="BU13" s="21">
         <f>MAX(person!BU2:BU8)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BV13" s="21">
         <f>MAX(person!BV2:BV8)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="BW13" s="21">
         <f>MAX(person!BW2:BW8)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BX13" s="21">
         <f>MAX(person!BX2:BX8)</f>
@@ -27758,11 +27765,11 @@
       </c>
       <c r="CK13" s="21">
         <f>MAX(person!CK2:CK8)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CL13" s="21">
         <f>MAX(person!CL2:CL8)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="CM13" s="21">
         <f>MAX(person!CM2:CM8)</f>
@@ -27794,11 +27801,11 @@
       </c>
       <c r="CT13" s="20">
         <f t="shared" ref="CT13:CT14" si="8">SUM(B13:CS13)</f>
-        <v>990</v>
+        <v>1016</v>
       </c>
       <c r="CU13" s="20">
         <f t="shared" ref="CU13:CU14" si="9">AVERAGE(B13:CS13)</f>
-        <v>10.3125</v>
+        <v>10.583333333333334</v>
       </c>
       <c r="CV13" s="20">
         <f t="shared" ref="CV13:CV14" si="10">MIN(B13:CJ13)</f>
@@ -27810,7 +27817,7 @@
       </c>
       <c r="CX13" s="20">
         <f t="shared" ref="CX13:CX14" si="12">STDEV(B13:CS13)</f>
-        <v>7.8931182551304575</v>
+        <v>8.0481010073533135</v>
       </c>
     </row>
     <row r="14" spans="1:102" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -28051,7 +28058,7 @@
       </c>
       <c r="BH14" s="21">
         <f>_xlfn.STDEV.P(person!BH2:BH8)</f>
-        <v>6.8809111878813116</v>
+        <v>6.8123537243236365</v>
       </c>
       <c r="BI14" s="21">
         <f>_xlfn.STDEV.P(person!BI2:BI8)</f>
@@ -28059,11 +28066,11 @@
       </c>
       <c r="BJ14" s="21">
         <f>_xlfn.STDEV.P(person!BJ2:BJ8)</f>
-        <v>5.4097417796461391</v>
+        <v>5.2876444352347844</v>
       </c>
       <c r="BK14" s="21">
         <f>_xlfn.STDEV.P(person!BK2:BK8)</f>
-        <v>6.4554991586828594</v>
+        <v>6.430158534243942</v>
       </c>
       <c r="BL14" s="21">
         <f>_xlfn.STDEV.P(person!BL2:BL8)</f>
@@ -28079,83 +28086,83 @@
       </c>
       <c r="BO14" s="21">
         <f>_xlfn.STDEV.P(person!BO2:BO8)</f>
-        <v>4.4721359549995796</v>
+        <v>4.6510915988856301</v>
       </c>
       <c r="BP14" s="21">
         <f>_xlfn.STDEV.P(person!BP2:BP8)</f>
-        <v>3.4166459266003995</v>
+        <v>3.9434782119549316</v>
       </c>
       <c r="BQ14" s="21">
         <f>_xlfn.STDEV.P(person!BQ2:BQ8)</f>
-        <v>3.1363569143000212</v>
+        <v>2.9137254363387344</v>
       </c>
       <c r="BR14" s="21">
         <f>_xlfn.STDEV.P(person!BR2:BR8)</f>
-        <v>6.4015304292594513</v>
+        <v>6.2727138286000423</v>
       </c>
       <c r="BS14" s="21">
         <f>_xlfn.STDEV.P(person!BS2:BS8)</f>
-        <v>4.8906407910353398</v>
+        <v>5.8064004094004504</v>
       </c>
       <c r="BT14" s="21">
         <f>_xlfn.STDEV.P(person!BT2:BT8)</f>
-        <v>6.6055017266839382</v>
+        <v>5.9693092616503369</v>
       </c>
       <c r="BU14" s="21">
         <f>_xlfn.STDEV.P(person!BU2:BU8)</f>
-        <v>3.8119040183218096</v>
+        <v>4.8318670072250747</v>
       </c>
       <c r="BV14" s="21">
         <f>_xlfn.STDEV.P(person!BV2:BV8)</f>
-        <v>4.8064582403602065</v>
+        <v>7.1599794777952388</v>
       </c>
       <c r="BW14" s="21">
         <f>_xlfn.STDEV.P(person!BW2:BW8)</f>
-        <v>3.8172540616821107</v>
+        <v>5.4210474174315078</v>
       </c>
       <c r="BX14" s="21">
         <f>_xlfn.STDEV.P(person!BX2:BX8)</f>
-        <v>5.6279187438834883</v>
+        <v>5.8414423715031063</v>
       </c>
       <c r="BY14" s="21">
         <f>_xlfn.STDEV.P(person!BY2:BY8)</f>
-        <v>5.7782138331876238</v>
+        <v>5.7427860692119372</v>
       </c>
       <c r="BZ14" s="21">
         <f>_xlfn.STDEV.P(person!BZ2:BZ8)</f>
-        <v>8.3958201456657786</v>
+        <v>7.9462479915276463</v>
       </c>
       <c r="CA14" s="21">
         <f>_xlfn.STDEV.P(person!CA2:CA8)</f>
-        <v>5.962467644202631</v>
+        <v>5.5915387973659794</v>
       </c>
       <c r="CB14" s="21">
         <f>_xlfn.STDEV.P(person!CB2:CB8)</f>
-        <v>4.7638091430094471</v>
+        <v>4.4994330708638923</v>
       </c>
       <c r="CC14" s="21">
         <f>_xlfn.STDEV.P(person!CC2:CC8)</f>
-        <v>5.9281411203561225</v>
+        <v>5.0142653642240695</v>
       </c>
       <c r="CD14" s="21">
         <f>_xlfn.STDEV.P(person!CD2:CD8)</f>
-        <v>7.5403675545123701</v>
+        <v>7.4532556918546184</v>
       </c>
       <c r="CE14" s="21">
         <f>_xlfn.STDEV.P(person!CE2:CE8)</f>
-        <v>5.4623012269443318</v>
+        <v>5.2020404160094644</v>
       </c>
       <c r="CF14" s="21">
         <f>_xlfn.STDEV.P(person!CF2:CF8)</f>
-        <v>2.0503857277724746</v>
+        <v>1.8070158058105026</v>
       </c>
       <c r="CG14" s="21">
         <f>_xlfn.STDEV.P(person!CG2:CG8)</f>
-        <v>2.2497165354319462</v>
+        <v>2.0303814862216991</v>
       </c>
       <c r="CH14" s="21">
         <f>_xlfn.STDEV.P(person!CH2:CH8)</f>
-        <v>3.1036515689143473</v>
+        <v>2.9965967090575756</v>
       </c>
       <c r="CI14" s="21">
         <f>_xlfn.STDEV.P(person!CI2:CI8)</f>
@@ -28163,15 +28170,15 @@
       </c>
       <c r="CJ14" s="21">
         <f>_xlfn.STDEV.P(person!CJ2:CJ8)</f>
-        <v>3.1558174334820746</v>
+        <v>2.8499910490371434</v>
       </c>
       <c r="CK14" s="21">
         <f>_xlfn.STDEV.P(person!CK2:CK8)</f>
-        <v>2</v>
+        <v>2.6572964625340392</v>
       </c>
       <c r="CL14" s="21">
         <f>_xlfn.STDEV.P(person!CL2:CL8)</f>
-        <v>2.6954231805876012</v>
+        <v>4.6510915988856301</v>
       </c>
       <c r="CM14" s="21">
         <f>_xlfn.STDEV.P(person!CM2:CM8)</f>
@@ -28203,11 +28210,11 @@
       </c>
       <c r="CT14" s="20">
         <f t="shared" si="8"/>
-        <v>329.62240865756235</v>
+        <v>334.58694683735052</v>
       </c>
       <c r="CU14" s="20">
         <f t="shared" si="9"/>
-        <v>3.4335667568496078</v>
+        <v>3.4852806962224014</v>
       </c>
       <c r="CV14" s="20">
         <f t="shared" si="10"/>
@@ -28219,7 +28226,7 @@
       </c>
       <c r="CX14" s="20">
         <f t="shared" si="12"/>
-        <v>2.5804667106623493</v>
+        <v>2.5929615578308862</v>
       </c>
     </row>
     <row r="15" spans="1:102" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -29021,7 +29028,7 @@
       </c>
       <c r="BS17" s="3">
         <f>IF(BS$10&gt;$B$49,IF(person!BS3&gt;(BS$11+BS$14*$B$50),person!BS3,0),0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BT17" s="3">
         <f>IF(BT$10&gt;$B$49,IF(person!BT3&gt;(BT$11+BT$14*$B$50),person!BT3,0),0)</f>
@@ -29029,15 +29036,15 @@
       </c>
       <c r="BU17" s="3">
         <f>IF(BU$10&gt;$B$49,IF(person!BU3&gt;(BU$11+BU$14*$B$50),person!BU3,0),0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BV17" s="3">
         <f>IF(BV$10&gt;$B$49,IF(person!BV3&gt;(BV$11+BV$14*$B$50),person!BV3,0),0)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BW17" s="3">
         <f>IF(BW$10&gt;$B$49,IF(person!BW3&gt;(BW$11+BW$14*$B$50),person!BW3,0),0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BX17" s="3">
         <f>IF(BX$10&gt;$B$49,IF(person!BX3&gt;(BX$11+BX$14*$B$50),person!BX3,0),0)</f>
@@ -29093,11 +29100,11 @@
       </c>
       <c r="CK17" s="3">
         <f>IF(CK$10&gt;$B$49,IF(person!CK3&gt;(CK$11+CK$14*$B$50),person!CK3,0),0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CL17" s="3">
         <f>IF(CL$10&gt;$B$49,IF(person!CL3&gt;(CL$11+CL$14*$B$50),person!CL3,0),0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CM17" s="3">
         <f>IF(CM$10&gt;$B$49,IF(person!CM3&gt;(CM$11+CM$14*$B$50),person!CM3,0),0)</f>
@@ -29129,11 +29136,11 @@
       </c>
       <c r="CT17" s="8">
         <f t="shared" ref="CT17:CT22" si="13">SUM(B17:CS17)</f>
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="CU17" s="8">
         <f t="shared" ref="CU17:CU22" si="14">AVERAGE(B17:CS17)</f>
-        <v>0.89583333333333337</v>
+        <v>1.8958333333333333</v>
       </c>
       <c r="CV17" s="8">
         <f t="shared" ref="CV17:CV22" si="15">MIN(B17:CJ17)</f>
@@ -29141,11 +29148,11 @@
       </c>
       <c r="CW17" s="8">
         <f t="shared" ref="CW17:CW22" si="16">MAX(B17:CS17)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CX17" s="8">
         <f t="shared" ref="CX17:CX22" si="17">STDEV(B17:CS17)</f>
-        <v>3.8043719079547267</v>
+        <v>5.4337719121235164</v>
       </c>
     </row>
     <row r="18" spans="1:102" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -29447,7 +29454,7 @@
       </c>
       <c r="BW18" s="3">
         <f>IF(BW$10&gt;$B$49,IF(person!BW4&gt;(BW$11+BW$14*$B$50),person!BW4,0),0)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="3">
         <f>IF(BX$10&gt;$B$49,IF(person!BX4&gt;(BX$11+BX$14*$B$50),person!BX4,0),0)</f>
@@ -29507,7 +29514,7 @@
       </c>
       <c r="CL18" s="3">
         <f>IF(CL$10&gt;$B$49,IF(person!CL4&gt;(CL$11+CL$14*$B$50),person!CL4,0),0)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CM18" s="3">
         <f>IF(CM$10&gt;$B$49,IF(person!CM4&gt;(CM$11+CM$14*$B$50),person!CM4,0),0)</f>
@@ -29539,11 +29546,11 @@
       </c>
       <c r="CT18" s="8">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="CU18" s="8">
         <f t="shared" si="14"/>
-        <v>0.73958333333333337</v>
+        <v>0.53125</v>
       </c>
       <c r="CV18" s="8">
         <f t="shared" si="15"/>
@@ -29555,7 +29562,7 @@
       </c>
       <c r="CX18" s="8">
         <f t="shared" si="17"/>
-        <v>3.3849350197188866</v>
+        <v>3.0709269130448478</v>
       </c>
     </row>
     <row r="19" spans="1:102" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -29841,7 +29848,7 @@
       </c>
       <c r="BS19" s="3">
         <f>IF(BS$10&gt;$B$49,IF(person!BS5&gt;(BS$11+BS$14*$B$50),person!BS5,0),0)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BT19" s="3">
         <f>IF(BT$10&gt;$B$49,IF(person!BT5&gt;(BT$11+BT$14*$B$50),person!BT5,0),0)</f>
@@ -29949,11 +29956,11 @@
       </c>
       <c r="CT19" s="8">
         <f t="shared" si="13"/>
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="CU19" s="8">
         <f t="shared" si="14"/>
-        <v>0.69791666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="CV19" s="8">
         <f t="shared" si="15"/>
@@ -29965,7 +29972,7 @@
       </c>
       <c r="CX19" s="8">
         <f t="shared" si="17"/>
-        <v>3.9044368599046977</v>
+        <v>3.6155123875546882</v>
       </c>
     </row>
     <row r="20" spans="1:102" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -30263,7 +30270,7 @@
       </c>
       <c r="BV20" s="3">
         <f>IF(BV$10&gt;$B$49,IF(person!BV6&gt;(BV$11+BV$14*$B$50),person!BV6,0),0)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BW20" s="3">
         <f>IF(BW$10&gt;$B$49,IF(person!BW6&gt;(BW$11+BW$14*$B$50),person!BW6,0),0)</f>
@@ -30359,11 +30366,11 @@
       </c>
       <c r="CT20" s="8">
         <f t="shared" si="13"/>
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="CU20" s="8">
         <f t="shared" si="14"/>
-        <v>0.76041666666666663</v>
+        <v>0.59375</v>
       </c>
       <c r="CV20" s="8">
         <f t="shared" si="15"/>
@@ -30375,7 +30382,7 @@
       </c>
       <c r="CX20" s="8">
         <f t="shared" si="17"/>
-        <v>3.408178373348643</v>
+        <v>3.0247335680840943</v>
       </c>
     </row>
     <row r="21" spans="1:102" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -30717,7 +30724,7 @@
       </c>
       <c r="CG21" s="3">
         <f>IF(CG$10&gt;$B$49,IF(person!CG7&gt;(CG$11+CG$14*$B$50),person!CG7,0),0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CH21" s="3">
         <f>IF(CH$10&gt;$B$49,IF(person!CH7&gt;(CH$11+CH$14*$B$50),person!CH7,0),0)</f>
@@ -30769,11 +30776,11 @@
       </c>
       <c r="CT21" s="8">
         <f t="shared" si="13"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="CU21" s="8">
         <f t="shared" si="14"/>
-        <v>0.20833333333333334</v>
+        <v>0.28125</v>
       </c>
       <c r="CV21" s="8">
         <f t="shared" si="15"/>
@@ -30785,7 +30792,7 @@
       </c>
       <c r="CX21" s="8">
         <f t="shared" si="17"/>
-        <v>1.2558634410062826</v>
+        <v>1.4341924190068926</v>
       </c>
     </row>
     <row r="22" spans="1:102" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -31480,7 +31487,7 @@
       </c>
       <c r="BS23" s="19">
         <f t="shared" si="20"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BT23" s="19">
         <f t="shared" si="20"/>
@@ -31488,15 +31495,15 @@
       </c>
       <c r="BU23" s="19">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BV23" s="19">
         <f t="shared" si="20"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="BW23" s="19">
         <f t="shared" si="20"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BX23" s="19">
         <f t="shared" si="20"/>
@@ -31536,7 +31543,7 @@
       </c>
       <c r="CG23" s="19">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CH23" s="19">
         <f t="shared" si="20"/>
@@ -31552,11 +31559,11 @@
       </c>
       <c r="CK23" s="19">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CL23" s="19">
         <f t="shared" si="20"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="CM23" s="19">
         <f t="shared" si="20"/>
@@ -31588,11 +31595,11 @@
       </c>
       <c r="CT23" s="20">
         <f>SUM(B23:CS23)</f>
-        <v>721</v>
+        <v>773</v>
       </c>
       <c r="CU23" s="20">
         <f>AVERAGE(B23:CS23)</f>
-        <v>7.510416666666667</v>
+        <v>8.0520833333333339</v>
       </c>
       <c r="CV23" s="20">
         <f>MIN(B23:CJ23)</f>
@@ -31604,7 +31611,7 @@
       </c>
       <c r="CX23" s="20">
         <f>STDEV(B23:CS23)</f>
-        <v>8.782751986486943</v>
+        <v>8.924678725359092</v>
       </c>
     </row>
     <row r="24" spans="1:102" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -31980,7 +31987,7 @@
       </c>
       <c r="BO25" s="3">
         <f>IF(BO$10&gt;$B$49,IF(person!BO2&lt;(BO$11-BO$14*$B$50),(BO$11-person!BO2)/BO$14,0),0)</f>
-        <v>1.5652475842498528</v>
+        <v>1.5664525479265756</v>
       </c>
       <c r="BP25" s="3">
         <f>IF(BP$10&gt;$B$49,IF(person!BP2&lt;(BP$11-BP$14*$B$50),(BP$11-person!BP2)/BP$14,0),0)</f>
@@ -32104,11 +32111,11 @@
       </c>
       <c r="CT25" s="8">
         <f>SUM(B25:CS25)</f>
-        <v>1.5652475842498528</v>
+        <v>1.5664525479265756</v>
       </c>
       <c r="CU25" s="8">
         <f>AVERAGE(B25:CS25)</f>
-        <v>1.6304662335935968E-2</v>
+        <v>1.6317214040901831E-2</v>
       </c>
       <c r="CV25" s="8">
         <f>MIN(B25:CJ25)</f>
@@ -32116,11 +32123,11 @@
       </c>
       <c r="CW25" s="8">
         <f>MAX(B25:CS25)</f>
-        <v>1.5652475842498528</v>
+        <v>1.5664525479265756</v>
       </c>
       <c r="CX25" s="8">
         <f>STDEV(B25:CS25)</f>
-        <v>0.15975241260567347</v>
+        <v>0.15987539369594675</v>
       </c>
     </row>
     <row r="26" spans="1:102" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -32458,11 +32465,11 @@
       </c>
       <c r="CF26" s="3">
         <f>IF(CF$10&gt;$B$49,IF(person!CF3&lt;(CF$11-CF$14*$B$50),(CF$11-person!CF3)/CF$14,0),0)</f>
-        <v>1.8115058371582062</v>
+        <v>1.5811388300841895</v>
       </c>
       <c r="CG26" s="3">
         <f>IF(CG$10&gt;$B$49,IF(person!CG3&lt;(CG$11-CG$14*$B$50),(CG$11-person!CG3)/CG$14,0),0)</f>
-        <v>1.6510016510024765</v>
+        <v>0</v>
       </c>
       <c r="CH26" s="3">
         <f>IF(CH$10&gt;$B$49,IF(person!CH3&lt;(CH$11-CH$14*$B$50),(CH$11-person!CH3)/CH$14,0),0)</f>
@@ -32514,11 +32521,11 @@
       </c>
       <c r="CT26" s="8">
         <f t="shared" ref="CT26:CT31" si="21">SUM(B26:CS26)</f>
-        <v>3.462507488160683</v>
+        <v>1.5811388300841895</v>
       </c>
       <c r="CU26" s="8">
         <f t="shared" ref="CU26:CU31" si="22">AVERAGE(B26:CS26)</f>
-        <v>3.6067786335007117E-2</v>
+        <v>1.6470196146710307E-2</v>
       </c>
       <c r="CV26" s="8">
         <f t="shared" ref="CV26:CV31" si="23">MIN(B26:CJ26)</f>
@@ -32526,11 +32533,11 @@
       </c>
       <c r="CW26" s="8">
         <f t="shared" ref="CW26:CW31" si="24">MAX(B26:CS26)</f>
-        <v>1.8115058371582062</v>
+        <v>1.5811388300841895</v>
       </c>
       <c r="CX26" s="8">
         <f t="shared" ref="CX26:CX31" si="25">STDEV(B26:CS26)</f>
-        <v>0.24883887979774796</v>
+        <v>0.1613743060919757</v>
       </c>
     </row>
     <row r="27" spans="1:102" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -33266,7 +33273,7 @@
       </c>
       <c r="CC28" s="3">
         <f>IF(CC$10&gt;$B$49,IF(person!CC5&lt;(CC$11-CC$14*$B$50),(CC$11-person!CC5)/CC$14,0),0)</f>
-        <v>0</v>
+        <v>1.7948790792392977</v>
       </c>
       <c r="CD28" s="3">
         <f>IF(CD$10&gt;$B$49,IF(person!CD5&lt;(CD$11-CD$14*$B$50),(CD$11-person!CD5)/CD$14,0),0)</f>
@@ -33334,11 +33341,11 @@
       </c>
       <c r="CT28" s="8">
         <f t="shared" si="21"/>
-        <v>1.7509620965266648</v>
+        <v>3.5458411757659625</v>
       </c>
       <c r="CU28" s="8">
         <f t="shared" si="22"/>
-        <v>1.823918850548609E-2</v>
+        <v>3.6935845580895445E-2</v>
       </c>
       <c r="CV28" s="8">
         <f t="shared" si="23"/>
@@ -33346,11 +33353,11 @@
       </c>
       <c r="CW28" s="8">
         <f t="shared" si="24"/>
-        <v>1.7509620965266648</v>
+        <v>1.7948790792392977</v>
       </c>
       <c r="CX28" s="8">
         <f t="shared" si="25"/>
-        <v>0.1787068206435081</v>
+        <v>0.25456858305441282</v>
       </c>
     </row>
     <row r="29" spans="1:102" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -34054,7 +34061,7 @@
       </c>
       <c r="BU30" s="3">
         <f>IF(BU$10&gt;$B$49,IF(person!BU7&lt;(BU$11-BU$14*$B$50),(BU$11-person!BU7)/BU$14,0),0)</f>
-        <v>1.9862589758390328</v>
+        <v>1.9217652869645188</v>
       </c>
       <c r="BV30" s="3">
         <f>IF(BV$10&gt;$B$49,IF(person!BV7&lt;(BV$11-BV$14*$B$50),(BV$11-person!BV7)/BV$14,0),0)</f>
@@ -34070,7 +34077,7 @@
       </c>
       <c r="BY30" s="3">
         <f>IF(BY$10&gt;$B$49,IF(person!BY7&lt;(BY$11-BY$14*$B$50),(BY$11-person!BY7)/BY$14,0),0)</f>
-        <v>0</v>
+        <v>1.5920595043359826</v>
       </c>
       <c r="BZ30" s="3">
         <f>IF(BZ$10&gt;$B$49,IF(person!BZ7&lt;(BZ$11-BZ$14*$B$50),(BZ$11-person!BZ7)/BZ$14,0),0)</f>
@@ -34154,11 +34161,11 @@
       </c>
       <c r="CT30" s="8">
         <f t="shared" si="21"/>
-        <v>3.547574446421967</v>
+        <v>5.0751402618834351</v>
       </c>
       <c r="CU30" s="8">
         <f t="shared" si="22"/>
-        <v>3.6953900483562153E-2</v>
+        <v>5.2866044394619116E-2</v>
       </c>
       <c r="CV30" s="8">
         <f t="shared" si="23"/>
@@ -34166,11 +34173,11 @@
       </c>
       <c r="CW30" s="8">
         <f t="shared" si="24"/>
-        <v>1.9862589758390328</v>
+        <v>1.9217652869645188</v>
       </c>
       <c r="CX30" s="8">
         <f t="shared" si="25"/>
-        <v>0.25653221824397615</v>
+        <v>0.29730789802769353</v>
       </c>
     </row>
     <row r="31" spans="1:102" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -34472,7 +34479,7 @@
       </c>
       <c r="BW31" s="3">
         <f>IF(BW$10&gt;$B$49,IF(person!BW8&lt;(BW$11-BW$14*$B$50),(BW$11-person!BW8)/BW$14,0),0)</f>
-        <v>1.5718104959867514</v>
+        <v>0</v>
       </c>
       <c r="BX31" s="3">
         <f>IF(BX$10&gt;$B$49,IF(person!BX8&lt;(BX$11-BX$14*$B$50),(BX$11-person!BX8)/BX$14,0),0)</f>
@@ -34564,11 +34571,11 @@
       </c>
       <c r="CT31" s="8">
         <f t="shared" si="21"/>
-        <v>3.1919956705887165</v>
+        <v>1.6201851746019651</v>
       </c>
       <c r="CU31" s="8">
         <f t="shared" si="22"/>
-        <v>3.3249954901965799E-2</v>
+        <v>1.6876928902103804E-2</v>
       </c>
       <c r="CV31" s="8">
         <f t="shared" si="23"/>
@@ -34580,7 +34587,7 @@
       </c>
       <c r="CX31" s="8">
         <f t="shared" si="25"/>
-        <v>0.2291736763426783</v>
+        <v>0.16535945694153692</v>
       </c>
     </row>
     <row r="32" spans="1:102" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -34849,7 +34856,7 @@
       </c>
       <c r="BO32" s="19">
         <f t="shared" si="28"/>
-        <v>1.5652475842498528</v>
+        <v>1.5664525479265756</v>
       </c>
       <c r="BP32" s="19">
         <f t="shared" si="28"/>
@@ -34873,7 +34880,7 @@
       </c>
       <c r="BU32" s="19">
         <f t="shared" si="28"/>
-        <v>1.9862589758390328</v>
+        <v>1.9217652869645188</v>
       </c>
       <c r="BV32" s="19">
         <f t="shared" si="28"/>
@@ -34881,7 +34888,7 @@
       </c>
       <c r="BW32" s="19">
         <f t="shared" si="28"/>
-        <v>1.5718104959867514</v>
+        <v>0</v>
       </c>
       <c r="BX32" s="19">
         <f t="shared" si="28"/>
@@ -34889,7 +34896,7 @@
       </c>
       <c r="BY32" s="19">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1.5920595043359826</v>
       </c>
       <c r="BZ32" s="19">
         <f t="shared" si="28"/>
@@ -34905,7 +34912,7 @@
       </c>
       <c r="CC32" s="19">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1.7948790792392977</v>
       </c>
       <c r="CD32" s="19">
         <f t="shared" si="28"/>
@@ -34917,11 +34924,11 @@
       </c>
       <c r="CF32" s="19">
         <f t="shared" si="28"/>
-        <v>1.8115058371582062</v>
+        <v>1.5811388300841895</v>
       </c>
       <c r="CG32" s="19">
         <f t="shared" si="28"/>
-        <v>1.6510016510024765</v>
+        <v>0</v>
       </c>
       <c r="CH32" s="19">
         <f t="shared" si="28"/>
@@ -34973,11 +34980,11 @@
       </c>
       <c r="CT32" s="20">
         <f>SUM(B32:CS32)</f>
-        <v>15.05184247926328</v>
+        <v>14.922313183577526</v>
       </c>
       <c r="CU32" s="20">
         <f>AVERAGE(B32:CS32)</f>
-        <v>0.15679002582565918</v>
+        <v>0.15544076232893256</v>
       </c>
       <c r="CV32" s="20">
         <f>MIN(B32:CJ32)</f>
@@ -34985,11 +34992,11 @@
       </c>
       <c r="CW32" s="20">
         <f>MAX(B32:CS32)</f>
-        <v>1.9862589758390328</v>
+        <v>1.9217652869645188</v>
       </c>
       <c r="CX32" s="20">
         <f>STDEV(B32:CS32)</f>
-        <v>0.49197303976323359</v>
+        <v>0.48735623881529183</v>
       </c>
     </row>
     <row r="33" spans="1:102" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -35393,7 +35400,7 @@
       </c>
       <c r="BV34" s="3">
         <f>IF(BV$10&gt;$B$49,IF(person!BV2&gt;(BV$11-BV$14*$B$51),IF((person!BV2&lt;BV$11+BV$14*$B$51),BV3,0),0),0)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BW34" s="3">
         <f>IF(BW$10&gt;$B$49,IF(person!BW2&gt;(BW$11-BW$14*$B$51),IF((person!BW2&lt;BW$11+BW$14*$B$51),BW3,0),0),0)</f>
@@ -35489,11 +35496,11 @@
       </c>
       <c r="CT34" s="8">
         <f>SUM(B34:CS34)</f>
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="CU34" s="8">
         <f>AVERAGE(B34:CS34)</f>
-        <v>1.1666666666666667</v>
+        <v>1.28125</v>
       </c>
       <c r="CV34" s="8">
         <f>MIN(B34:CJ34)</f>
@@ -35505,7 +35512,7 @@
       </c>
       <c r="CX34" s="8">
         <f>STDEV(B34:CS34)</f>
-        <v>2.882494046797766</v>
+        <v>3.0494283329658263</v>
       </c>
     </row>
     <row r="35" spans="1:102" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -35747,7 +35754,7 @@
       </c>
       <c r="BH35" s="3">
         <f>IF(BH$10&gt;$B$49,IF(person!BH3&gt;(BH$11-BH$14*$B$51),IF((person!BH3&lt;BH$11+BH$14*$B$51),BH4,0),0),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI35" s="3">
         <f>IF(BI$10&gt;$B$49,IF(person!BI3&gt;(BI$11-BI$14*$B$51),IF((person!BI3&lt;BI$11+BI$14*$B$51),BI4,0),0),0)</f>
@@ -35755,11 +35762,11 @@
       </c>
       <c r="BJ35" s="3">
         <f>IF(BJ$10&gt;$B$49,IF(person!BJ3&gt;(BJ$11-BJ$14*$B$51),IF((person!BJ3&lt;BJ$11+BJ$14*$B$51),BJ4,0),0),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BK35" s="3">
         <f>IF(BK$10&gt;$B$49,IF(person!BK3&gt;(BK$11-BK$14*$B$51),IF((person!BK3&lt;BK$11+BK$14*$B$51),BK4,0),0),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL35" s="3">
         <f>IF(BL$10&gt;$B$49,IF(person!BL3&gt;(BL$11-BL$14*$B$51),IF((person!BL3&lt;BL$11+BL$14*$B$51),BL4,0),0),0)</f>
@@ -35775,15 +35782,15 @@
       </c>
       <c r="BO35" s="3">
         <f>IF(BO$10&gt;$B$49,IF(person!BO3&gt;(BO$11-BO$14*$B$51),IF((person!BO3&lt;BO$11+BO$14*$B$51),BO4,0),0),0)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BP35" s="3">
         <f>IF(BP$10&gt;$B$49,IF(person!BP3&gt;(BP$11-BP$14*$B$51),IF((person!BP3&lt;BP$11+BP$14*$B$51),BP4,0),0),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BQ35" s="3">
         <f>IF(BQ$10&gt;$B$49,IF(person!BQ3&gt;(BQ$11-BQ$14*$B$51),IF((person!BQ3&lt;BQ$11+BQ$14*$B$51),BQ4,0),0),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BR35" s="3">
         <f>IF(BR$10&gt;$B$49,IF(person!BR3&gt;(BR$11-BR$14*$B$51),IF((person!BR3&lt;BR$11+BR$14*$B$51),BR4,0),0),0)</f>
@@ -35807,31 +35814,31 @@
       </c>
       <c r="BW35" s="3">
         <f>IF(BW$10&gt;$B$49,IF(person!BW3&gt;(BW$11-BW$14*$B$51),IF((person!BW3&lt;BW$11+BW$14*$B$51),BW4,0),0),0)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BX35" s="3">
         <f>IF(BX$10&gt;$B$49,IF(person!BX3&gt;(BX$11-BX$14*$B$51),IF((person!BX3&lt;BX$11+BX$14*$B$51),BX4,0),0),0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BY35" s="3">
         <f>IF(BY$10&gt;$B$49,IF(person!BY3&gt;(BY$11-BY$14*$B$51),IF((person!BY3&lt;BY$11+BY$14*$B$51),BY4,0),0),0)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BZ35" s="3">
         <f>IF(BZ$10&gt;$B$49,IF(person!BZ3&gt;(BZ$11-BZ$14*$B$51),IF((person!BZ3&lt;BZ$11+BZ$14*$B$51),BZ4,0),0),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CA35" s="3">
         <f>IF(CA$10&gt;$B$49,IF(person!CA3&gt;(CA$11-CA$14*$B$51),IF((person!CA3&lt;CA$11+CA$14*$B$51),CA4,0),0),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CB35" s="3">
         <f>IF(CB$10&gt;$B$49,IF(person!CB3&gt;(CB$11-CB$14*$B$51),IF((person!CB3&lt;CB$11+CB$14*$B$51),CB4,0),0),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CC35" s="3">
         <f>IF(CC$10&gt;$B$49,IF(person!CC3&gt;(CC$11-CC$14*$B$51),IF((person!CC3&lt;CC$11+CC$14*$B$51),CC4,0),0),0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CD35" s="3">
         <f>IF(CD$10&gt;$B$49,IF(person!CD3&gt;(CD$11-CD$14*$B$51),IF((person!CD3&lt;CD$11+CD$14*$B$51),CD4,0),0),0)</f>
@@ -35839,7 +35846,7 @@
       </c>
       <c r="CE35" s="3">
         <f>IF(CE$10&gt;$B$49,IF(person!CE3&gt;(CE$11-CE$14*$B$51),IF((person!CE3&lt;CE$11+CE$14*$B$51),CE4,0),0),0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CF35" s="3">
         <f>IF(CF$10&gt;$B$49,IF(person!CF3&gt;(CF$11-CF$14*$B$51),IF((person!CF3&lt;CF$11+CF$14*$B$51),CF4,0),0),0)</f>
@@ -35859,11 +35866,11 @@
       </c>
       <c r="CJ35" s="3">
         <f>IF(CJ$10&gt;$B$49,IF(person!CJ3&gt;(CJ$11-CJ$14*$B$51),IF((person!CJ3&lt;CJ$11+CJ$14*$B$51),CJ4,0),0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CK35" s="3">
         <f>IF(CK$10&gt;$B$49,IF(person!CK3&gt;(CK$11-CK$14*$B$51),IF((person!CK3&lt;CK$11+CK$14*$B$51),CK4,0),0),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CL35" s="3">
         <f>IF(CL$10&gt;$B$49,IF(person!CL3&gt;(CL$11-CL$14*$B$51),IF((person!CL3&lt;CL$11+CL$14*$B$51),CL4,0),0),0)</f>
@@ -35899,11 +35906,11 @@
       </c>
       <c r="CT35" s="8">
         <f t="shared" ref="CT35:CT40" si="29">SUM(B35:CS35)</f>
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="CU35" s="8">
         <f t="shared" ref="CU35:CU40" si="30">AVERAGE(B35:CS35)</f>
-        <v>1.0625</v>
+        <v>1.2604166666666667</v>
       </c>
       <c r="CV35" s="8">
         <f t="shared" ref="CV35:CV40" si="31">MIN(B35:CJ35)</f>
@@ -35915,7 +35922,7 @@
       </c>
       <c r="CX35" s="8">
         <f t="shared" ref="CX35:CX40" si="33">STDEV(B35:CS35)</f>
-        <v>2.6310394183768193</v>
+        <v>2.7577442790751885</v>
       </c>
     </row>
     <row r="36" spans="1:102" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -36221,7 +36228,7 @@
       </c>
       <c r="BX36" s="3">
         <f>IF(BX$10&gt;$B$49,IF(person!BX4&gt;(BX$11-BX$14*$B$51),IF((person!BX4&lt;BX$11+BX$14*$B$51),BX5,0),0),0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BY36" s="3">
         <f>IF(BY$10&gt;$B$49,IF(person!BY4&gt;(BY$11-BY$14*$B$51),IF((person!BY4&lt;BY$11+BY$14*$B$51),BY5,0),0),0)</f>
@@ -36309,11 +36316,11 @@
       </c>
       <c r="CT36" s="8">
         <f t="shared" si="29"/>
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="CU36" s="8">
         <f t="shared" si="30"/>
-        <v>1.2604166666666667</v>
+        <v>1.3958333333333333</v>
       </c>
       <c r="CV36" s="8">
         <f t="shared" si="31"/>
@@ -36321,11 +36328,11 @@
       </c>
       <c r="CW36" s="8">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CX36" s="8">
         <f t="shared" si="33"/>
-        <v>2.8478793279678594</v>
+        <v>3.0864019817552051</v>
       </c>
     </row>
     <row r="37" spans="1:102" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -37037,7 +37044,7 @@
       </c>
       <c r="BW38" s="3">
         <f>IF(BW$10&gt;$B$49,IF(person!BW6&gt;(BW$11-BW$14*$B$51),IF((person!BW6&lt;BW$11+BW$14*$B$51),BW7,0),0),0)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BX38" s="3">
         <f>IF(BX$10&gt;$B$49,IF(person!BX6&gt;(BX$11-BX$14*$B$51),IF((person!BX6&lt;BX$11+BX$14*$B$51),BX7,0),0),0)</f>
@@ -37129,11 +37136,11 @@
       </c>
       <c r="CT38" s="8">
         <f t="shared" si="29"/>
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="CU38" s="8">
         <f t="shared" si="30"/>
-        <v>1.4375</v>
+        <v>1.5520833333333333</v>
       </c>
       <c r="CV38" s="8">
         <f t="shared" si="31"/>
@@ -37145,7 +37152,7 @@
       </c>
       <c r="CX38" s="8">
         <f t="shared" si="33"/>
-        <v>3.0635806364105176</v>
+        <v>3.2113935052581204</v>
       </c>
     </row>
     <row r="39" spans="1:102" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -37463,7 +37470,7 @@
       </c>
       <c r="CA39" s="3">
         <f>IF(CA$10&gt;$B$49,IF(person!CA7&gt;(CA$11-CA$14*$B$51),IF((person!CA7&lt;CA$11+CA$14*$B$51),CA8,0),0),0)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CB39" s="3">
         <f>IF(CB$10&gt;$B$49,IF(person!CB7&gt;(CB$11-CB$14*$B$51),IF((person!CB7&lt;CB$11+CB$14*$B$51),CB8,0),0),0)</f>
@@ -37539,11 +37546,11 @@
       </c>
       <c r="CT39" s="8">
         <f t="shared" si="29"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="CU39" s="8">
         <f t="shared" si="30"/>
-        <v>0.67708333333333337</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="CV39" s="8">
         <f t="shared" si="31"/>
@@ -37555,7 +37562,7 @@
       </c>
       <c r="CX39" s="8">
         <f t="shared" si="33"/>
-        <v>1.9001096459590605</v>
+        <v>1.8201780807421111</v>
       </c>
     </row>
     <row r="40" spans="1:102" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -37841,7 +37848,7 @@
       </c>
       <c r="BS40" s="3">
         <f>IF(BS$10&gt;$B$49,IF(person!BS8&gt;(BS$11-BS$14*$B$51),IF((person!BS8&lt;BS$11+BS$14*$B$51),BS9,0),0),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BT40" s="3">
         <f>IF(BT$10&gt;$B$49,IF(person!BT8&gt;(BT$11-BT$14*$B$51),IF((person!BT8&lt;BT$11+BT$14*$B$51),BT9,0),0),0)</f>
@@ -37849,7 +37856,7 @@
       </c>
       <c r="BU40" s="3">
         <f>IF(BU$10&gt;$B$49,IF(person!BU8&gt;(BU$11-BU$14*$B$51),IF((person!BU8&lt;BU$11+BU$14*$B$51),BU9,0),0),0)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BV40" s="3">
         <f>IF(BV$10&gt;$B$49,IF(person!BV8&gt;(BV$11-BV$14*$B$51),IF((person!BV8&lt;BV$11+BV$14*$B$51),BV9,0),0),0)</f>
@@ -37949,11 +37956,11 @@
       </c>
       <c r="CT40" s="8">
         <f t="shared" si="29"/>
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="CU40" s="8">
         <f t="shared" si="30"/>
-        <v>0.84375</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="CV40" s="8">
         <f t="shared" si="31"/>
@@ -37965,7 +37972,7 @@
       </c>
       <c r="CX40" s="8">
         <f t="shared" si="33"/>
-        <v>2.2679836860083453</v>
+        <v>2.5911455165079591</v>
       </c>
     </row>
     <row r="41" spans="1:102" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -38206,7 +38213,7 @@
       </c>
       <c r="BH41" s="23">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI41" s="23">
         <f t="shared" si="34"/>
@@ -38214,7 +38221,7 @@
       </c>
       <c r="BJ41" s="23">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BK41" s="23">
         <f t="shared" si="34"/>
@@ -38234,15 +38241,15 @@
       </c>
       <c r="BO41" s="23">
         <f t="shared" ref="BO41:CS41" si="35">COUNTIF(BO34:BO40,"&gt;0")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP41" s="23">
         <f t="shared" si="35"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BQ41" s="23">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BR41" s="23">
         <f t="shared" si="35"/>
@@ -38250,7 +38257,7 @@
       </c>
       <c r="BS41" s="23">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT41" s="23">
         <f t="shared" si="35"/>
@@ -38258,11 +38265,11 @@
       </c>
       <c r="BU41" s="23">
         <f t="shared" si="35"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BV41" s="23">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW41" s="23">
         <f t="shared" si="35"/>
@@ -38278,7 +38285,7 @@
       </c>
       <c r="BZ41" s="23">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CA41" s="23">
         <f t="shared" si="35"/>
@@ -38286,11 +38293,11 @@
       </c>
       <c r="CB41" s="23">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC41" s="23">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CD41" s="23">
         <f t="shared" si="35"/>
@@ -38298,7 +38305,7 @@
       </c>
       <c r="CE41" s="23">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CF41" s="23">
         <f t="shared" si="35"/>
@@ -38318,11 +38325,11 @@
       </c>
       <c r="CJ41" s="23">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CK41" s="23">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL41" s="23">
         <f t="shared" si="35"/>
@@ -38358,11 +38365,11 @@
       </c>
       <c r="CT41" s="20">
         <f>SUM(B41:CS41)</f>
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="CU41" s="20">
         <f>AVERAGE(B41:CS41)</f>
-        <v>1.3541666666666667</v>
+        <v>1.4375</v>
       </c>
       <c r="CV41" s="20">
         <f>MIN(B41:CJ41)</f>
@@ -38374,7 +38381,7 @@
       </c>
       <c r="CX41" s="20">
         <f>STDEV(B41:CS41)</f>
-        <v>1.1963027839461016</v>
+        <v>1.2295698862867284</v>
       </c>
     </row>
     <row r="42" spans="1:102" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -38615,7 +38622,7 @@
       </c>
       <c r="BH42" s="19">
         <f t="shared" si="37"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI42" s="19">
         <f t="shared" si="37"/>
@@ -38623,11 +38630,11 @@
       </c>
       <c r="BJ42" s="19">
         <f t="shared" si="37"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BK42" s="19">
         <f t="shared" si="37"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BL42" s="19">
         <f t="shared" si="37"/>
@@ -38643,15 +38650,15 @@
       </c>
       <c r="BO42" s="19">
         <f t="shared" si="38"/>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="BP42" s="19">
         <f t="shared" si="38"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BQ42" s="19">
         <f t="shared" si="38"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BR42" s="19">
         <f t="shared" si="38"/>
@@ -38659,7 +38666,7 @@
       </c>
       <c r="BS42" s="19">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BT42" s="19">
         <f t="shared" si="38"/>
@@ -38667,39 +38674,39 @@
       </c>
       <c r="BU42" s="19">
         <f t="shared" si="38"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="BV42" s="19">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BW42" s="19">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BX42" s="19">
         <f t="shared" si="38"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BY42" s="19">
         <f t="shared" si="38"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BZ42" s="19">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="CA42" s="19">
         <f t="shared" si="38"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CB42" s="19">
         <f t="shared" si="38"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="CC42" s="19">
         <f t="shared" si="38"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="CD42" s="19">
         <f t="shared" si="38"/>
@@ -38707,7 +38714,7 @@
       </c>
       <c r="CE42" s="19">
         <f t="shared" si="38"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="CF42" s="19">
         <f t="shared" si="38"/>
@@ -38727,11 +38734,11 @@
       </c>
       <c r="CJ42" s="19">
         <f t="shared" si="38"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CK42" s="19">
         <f t="shared" si="38"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CL42" s="19">
         <f t="shared" si="38"/>
@@ -38767,11 +38774,11 @@
       </c>
       <c r="CT42" s="20">
         <f t="shared" ref="CT42" si="39">SUM(B42:CS42)</f>
-        <v>701</v>
+        <v>768</v>
       </c>
       <c r="CU42" s="20">
         <f t="shared" ref="CU42" si="40">AVERAGE(B42:CS42)</f>
-        <v>7.302083333333333</v>
+        <v>8</v>
       </c>
       <c r="CV42" s="20">
         <f t="shared" ref="CV42" si="41">MIN(B42:CJ42)</f>
@@ -38783,7 +38790,7 @@
       </c>
       <c r="CX42" s="20">
         <f t="shared" ref="CX42" si="43">STDEV(B42:CS42)</f>
-        <v>8.197714433293255</v>
+        <v>8.7599567410611776</v>
       </c>
     </row>
     <row r="43" spans="1:102" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -39024,7 +39031,7 @@
       </c>
       <c r="BH43" s="19">
         <f t="shared" si="44"/>
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="BI43" s="19">
         <f t="shared" si="44"/>
@@ -39032,11 +39039,11 @@
       </c>
       <c r="BJ43" s="19">
         <f t="shared" si="44"/>
-        <v>0.5714285714285714</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="BK43" s="19">
         <f t="shared" si="44"/>
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="BL43" s="19">
         <f t="shared" si="44"/>
@@ -39052,15 +39059,15 @@
       </c>
       <c r="BO43" s="19">
         <f t="shared" ref="BO43:CS43" si="45">AVERAGE(BO34:BO40)</f>
-        <v>3.1428571428571428</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="BP43" s="19">
         <f t="shared" si="45"/>
-        <v>1.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="BQ43" s="19">
         <f t="shared" si="45"/>
-        <v>1.2857142857142858</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="BR43" s="19">
         <f t="shared" si="45"/>
@@ -39068,7 +39075,7 @@
       </c>
       <c r="BS43" s="19">
         <f t="shared" si="45"/>
-        <v>0.7142857142857143</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="BT43" s="19">
         <f t="shared" si="45"/>
@@ -39076,39 +39083,39 @@
       </c>
       <c r="BU43" s="19">
         <f t="shared" si="45"/>
-        <v>4</v>
+        <v>5.5714285714285712</v>
       </c>
       <c r="BV43" s="19">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="BW43" s="19">
         <f t="shared" si="45"/>
-        <v>2.1428571428571428</v>
+        <v>2.7142857142857144</v>
       </c>
       <c r="BX43" s="19">
         <f t="shared" si="45"/>
-        <v>4.4285714285714288</v>
+        <v>4.8571428571428568</v>
       </c>
       <c r="BY43" s="19">
         <f t="shared" si="45"/>
-        <v>1</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="BZ43" s="19">
         <f t="shared" si="45"/>
-        <v>1.7142857142857142</v>
+        <v>2.5714285714285716</v>
       </c>
       <c r="CA43" s="19">
         <f t="shared" si="45"/>
-        <v>2.8571428571428572</v>
+        <v>3.1428571428571428</v>
       </c>
       <c r="CB43" s="19">
         <f t="shared" si="45"/>
-        <v>1</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="CC43" s="19">
         <f t="shared" si="45"/>
-        <v>1.4285714285714286</v>
+        <v>2.4285714285714284</v>
       </c>
       <c r="CD43" s="19">
         <f t="shared" si="45"/>
@@ -39116,7 +39123,7 @@
       </c>
       <c r="CE43" s="19">
         <f t="shared" si="45"/>
-        <v>1.2857142857142858</v>
+        <v>2.2857142857142856</v>
       </c>
       <c r="CF43" s="19">
         <f t="shared" si="45"/>
@@ -39136,11 +39143,11 @@
       </c>
       <c r="CJ43" s="19">
         <f t="shared" si="45"/>
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="CK43" s="19">
         <f t="shared" si="45"/>
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="CL43" s="19">
         <f t="shared" si="45"/>
@@ -39176,11 +39183,11 @@
       </c>
       <c r="CT43" s="20">
         <f t="shared" ref="CT43:CT46" si="46">SUM(B43:CS43)</f>
-        <v>100.14285714285714</v>
+        <v>109.71428571428569</v>
       </c>
       <c r="CU43" s="20">
         <f t="shared" ref="CU43:CU46" si="47">AVERAGE(B43:CS43)</f>
-        <v>1.0431547619047619</v>
+        <v>1.1428571428571426</v>
       </c>
       <c r="CV43" s="20">
         <f t="shared" ref="CV43:CV46" si="48">MIN(B43:CJ43)</f>
@@ -39192,7 +39199,7 @@
       </c>
       <c r="CX43" s="20">
         <f t="shared" ref="CX43:CX46" si="50">STDEV(B43:CS43)</f>
-        <v>1.1711020618990364</v>
+        <v>1.2514223915801683</v>
       </c>
     </row>
     <row r="44" spans="1:102" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -39850,7 +39857,7 @@
       </c>
       <c r="BJ45" s="19">
         <f t="shared" si="53"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BK45" s="19">
         <f t="shared" si="53"/>
@@ -39870,7 +39877,7 @@
       </c>
       <c r="BO45" s="19">
         <f t="shared" ref="BO45:CS45" si="54">MAX(BO34:BO40)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BP45" s="19">
         <f t="shared" si="54"/>
@@ -39886,7 +39893,7 @@
       </c>
       <c r="BS45" s="19">
         <f t="shared" si="54"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BT45" s="19">
         <f t="shared" si="54"/>
@@ -39894,23 +39901,23 @@
       </c>
       <c r="BU45" s="19">
         <f t="shared" si="54"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BV45" s="19">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BW45" s="19">
         <f t="shared" si="54"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BX45" s="19">
         <f t="shared" si="54"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BY45" s="19">
         <f t="shared" si="54"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BZ45" s="19">
         <f t="shared" si="54"/>
@@ -39918,7 +39925,7 @@
       </c>
       <c r="CA45" s="19">
         <f t="shared" si="54"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB45" s="19">
         <f t="shared" si="54"/>
@@ -39958,7 +39965,7 @@
       </c>
       <c r="CK45" s="19">
         <f t="shared" si="54"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CL45" s="19">
         <f t="shared" si="54"/>
@@ -39994,11 +40001,11 @@
       </c>
       <c r="CT45" s="20">
         <f t="shared" si="46"/>
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="CU45" s="20">
         <f t="shared" si="47"/>
-        <v>4.145833333333333</v>
+        <v>4.385416666666667</v>
       </c>
       <c r="CV45" s="20">
         <f t="shared" si="48"/>
@@ -40010,7 +40017,7 @@
       </c>
       <c r="CX45" s="20">
         <f t="shared" si="50"/>
-        <v>4.1294301038346859</v>
+        <v>4.3197704414316584</v>
       </c>
     </row>
     <row r="46" spans="1:102" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -40251,7 +40258,7 @@
       </c>
       <c r="BH46" s="19">
         <f t="shared" si="55"/>
-        <v>0.75592894601845451</v>
+        <v>0.9759000729485332</v>
       </c>
       <c r="BI46" s="19">
         <f t="shared" si="55"/>
@@ -40259,11 +40266,11 @@
       </c>
       <c r="BJ46" s="19">
         <f t="shared" si="55"/>
-        <v>0.7867957924694432</v>
+        <v>1.4638501094227998</v>
       </c>
       <c r="BK46" s="19">
         <f t="shared" si="55"/>
-        <v>1.5735915849388864</v>
+        <v>1.7320508075688772</v>
       </c>
       <c r="BL46" s="19">
         <f t="shared" si="55"/>
@@ -40279,15 +40286,15 @@
       </c>
       <c r="BO46" s="19">
         <f t="shared" ref="BO46:CS46" si="56">STDEV(BO34:BO40)</f>
-        <v>4.0178174601214955</v>
+        <v>3.1847852585154222</v>
       </c>
       <c r="BP46" s="19">
         <f t="shared" si="56"/>
-        <v>1.9880595947760098</v>
+        <v>1.7320508075688772</v>
       </c>
       <c r="BQ46" s="19">
         <f t="shared" si="56"/>
-        <v>2.2146697055682831</v>
+        <v>2.3401261667248794</v>
       </c>
       <c r="BR46" s="19">
         <f t="shared" si="56"/>
@@ -40295,7 +40302,7 @@
       </c>
       <c r="BS46" s="19">
         <f t="shared" si="56"/>
-        <v>1.8898223650461361</v>
+        <v>3.2877840272018797</v>
       </c>
       <c r="BT46" s="19">
         <f t="shared" si="56"/>
@@ -40303,39 +40310,39 @@
       </c>
       <c r="BU46" s="19">
         <f t="shared" si="56"/>
-        <v>5</v>
+        <v>5.2553827281224361</v>
       </c>
       <c r="BV46" s="19">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>4.1576092031015</v>
       </c>
       <c r="BW46" s="19">
         <f t="shared" si="56"/>
-        <v>3.670993118515816</v>
+        <v>4.7157284949512563</v>
       </c>
       <c r="BX46" s="19">
         <f t="shared" si="56"/>
-        <v>5.593363414414827</v>
+        <v>6.1759903774906535</v>
       </c>
       <c r="BY46" s="19">
         <f t="shared" si="56"/>
-        <v>2.6457513110645907</v>
+        <v>4.5355736761107268</v>
       </c>
       <c r="BZ46" s="19">
         <f t="shared" si="56"/>
-        <v>4.5355736761107268</v>
+        <v>4.7207747548166594</v>
       </c>
       <c r="CA46" s="19">
         <f t="shared" si="56"/>
-        <v>3.5790395093549625</v>
+        <v>3.9339789623472159</v>
       </c>
       <c r="CB46" s="19">
         <f t="shared" si="56"/>
-        <v>2.6457513110645907</v>
+        <v>2.819996622760558</v>
       </c>
       <c r="CC46" s="19">
         <f t="shared" si="56"/>
-        <v>3.7796447300922722</v>
+        <v>4.2370250120079485</v>
       </c>
       <c r="CD46" s="19">
         <f t="shared" si="56"/>
@@ -40343,7 +40350,7 @@
       </c>
       <c r="CE46" s="19">
         <f t="shared" si="56"/>
-        <v>3.4016802570830449</v>
+        <v>3.9460649476951808</v>
       </c>
       <c r="CF46" s="19">
         <f t="shared" si="56"/>
@@ -40363,11 +40370,11 @@
       </c>
       <c r="CJ46" s="19">
         <f t="shared" si="56"/>
-        <v>1.511857892036909</v>
+        <v>1.7320508075688772</v>
       </c>
       <c r="CK46" s="19">
         <f t="shared" si="56"/>
-        <v>0.75592894601845451</v>
+        <v>0</v>
       </c>
       <c r="CL46" s="19">
         <f t="shared" si="56"/>
@@ -40403,11 +40410,11 @@
       </c>
       <c r="CT46" s="20">
         <f t="shared" si="46"/>
-        <v>168.99729481068172</v>
+        <v>179.59774803291111</v>
       </c>
       <c r="CU46" s="20">
         <f t="shared" si="47"/>
-        <v>1.7603884876112679</v>
+        <v>1.8708098753428242</v>
       </c>
       <c r="CV46" s="20">
         <f t="shared" si="48"/>
@@ -40419,7 +40426,7 @@
       </c>
       <c r="CX46" s="20">
         <f t="shared" si="50"/>
-        <v>1.7635236519095256</v>
+        <v>1.8424324592830739</v>
       </c>
     </row>
     <row r="48" spans="1:102" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -41273,16 +41280,16 @@
         <v>6</v>
       </c>
       <c r="BH3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI3" s="1">
         <v>2</v>
       </c>
       <c r="BJ3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BK3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL3" s="1">
         <v>1</v>
@@ -41294,76 +41301,76 @@
         <v>3</v>
       </c>
       <c r="BO3" s="1">
+        <v>11</v>
+      </c>
+      <c r="BP3" s="1">
         <v>9</v>
       </c>
-      <c r="BP3" s="1">
+      <c r="BQ3" s="1">
         <v>4</v>
       </c>
-      <c r="BQ3" s="1">
+      <c r="BR3" s="1">
+        <v>4</v>
+      </c>
+      <c r="BS3" s="1">
+        <v>16</v>
+      </c>
+      <c r="BT3" s="1">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="1">
+        <v>18</v>
+      </c>
+      <c r="BV3" s="1">
+        <v>24</v>
+      </c>
+      <c r="BW3" s="1">
+        <v>18</v>
+      </c>
+      <c r="BX3" s="1">
+        <v>14</v>
+      </c>
+      <c r="BY3" s="1">
+        <v>12</v>
+      </c>
+      <c r="BZ3" s="1">
+        <v>6</v>
+      </c>
+      <c r="CA3" s="1">
+        <v>8</v>
+      </c>
+      <c r="CB3" s="1">
+        <v>4</v>
+      </c>
+      <c r="CC3" s="1">
+        <v>7</v>
+      </c>
+      <c r="CD3" s="1">
+        <v>8</v>
+      </c>
+      <c r="CE3" s="1">
+        <v>7</v>
+      </c>
+      <c r="CF3" s="1">
         <v>1</v>
       </c>
-      <c r="BR3" s="1">
+      <c r="CG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH3" s="1">
+        <v>2</v>
+      </c>
+      <c r="CI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="1">
         <v>3</v>
       </c>
-      <c r="BS3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU3" s="1">
-        <v>6</v>
-      </c>
-      <c r="BV3" s="1">
-        <v>14</v>
-      </c>
-      <c r="BW3" s="1">
+      <c r="CK3" s="1">
         <v>7</v>
       </c>
-      <c r="BX3" s="1">
-        <v>10</v>
-      </c>
-      <c r="BY3" s="1">
-        <v>7</v>
-      </c>
-      <c r="BZ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CA3" s="1">
-        <v>3</v>
-      </c>
-      <c r="CB3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD3" s="1">
-        <v>7</v>
-      </c>
-      <c r="CE3" s="1">
-        <v>3</v>
-      </c>
-      <c r="CF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CI3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK3" s="1">
-        <v>2</v>
-      </c>
       <c r="CL3" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="CM3" s="1">
         <v>5</v>
